--- a/modelo_expedicao_checklist2307.xlsx
+++ b/modelo_expedicao_checklist2307.xlsx
@@ -135,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="000000"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -206,8 +206,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="20.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +229,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -377,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -394,7 +405,7 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -465,19 +476,19 @@
     <xf borderId="7" fillId="2" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -498,13 +509,16 @@
     <xf borderId="7" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -836,7 +850,7 @@
     <col customWidth="1" min="5" max="5" width="22.57"/>
     <col customWidth="1" min="6" max="6" width="20.86"/>
     <col customWidth="1" min="7" max="7" width="21.43"/>
-    <col customWidth="1" min="8" max="8" width="17.29"/>
+    <col customWidth="1" min="8" max="8" width="17.0"/>
     <col customWidth="1" min="9" max="9" width="33.43"/>
     <col customWidth="1" min="10" max="26" width="8.71"/>
   </cols>
@@ -1772,9 +1786,9 @@
       <c r="D31" s="18"/>
       <c r="E31" s="6"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -1800,9 +1814,9 @@
       <c r="D32" s="18"/>
       <c r="E32" s="6"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -1828,9 +1842,9 @@
       <c r="D33" s="18"/>
       <c r="E33" s="6"/>
       <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -1855,10 +1869,10 @@
       <c r="C34" s="47"/>
       <c r="D34" s="18"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -1883,10 +1897,10 @@
       <c r="C35" s="47"/>
       <c r="D35" s="18"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -1911,10 +1925,10 @@
       <c r="C36" s="47"/>
       <c r="D36" s="18"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -1939,10 +1953,10 @@
       <c r="C37" s="47"/>
       <c r="D37" s="18"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -1962,19 +1976,19 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" ht="69.75" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="50"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="52" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -1994,15 +2008,15 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2022,15 +2036,15 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -2050,15 +2064,15 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -2078,15 +2092,15 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="57"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -2106,15 +2120,15 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="57"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -2134,15 +2148,15 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -2162,15 +2176,15 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="57"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -2190,15 +2204,15 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="57"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -2218,15 +2232,15 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -2246,15 +2260,15 @@
       <c r="Z47" s="8"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
@@ -2274,15 +2288,15 @@
       <c r="Z48" s="8"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="57"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -2302,15 +2316,15 @@
       <c r="Z49" s="8"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="57"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="58"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -2330,15 +2344,15 @@
       <c r="Z50" s="8"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="57"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -2358,15 +2372,15 @@
       <c r="Z51" s="8"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="57"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -2386,15 +2400,15 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="57"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -2414,15 +2428,15 @@
       <c r="Z53" s="8"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -2442,15 +2456,15 @@
       <c r="Z54" s="8"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="57"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -2470,15 +2484,15 @@
       <c r="Z55" s="8"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="57"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="58"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -2498,15 +2512,15 @@
       <c r="Z56" s="8"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -2526,15 +2540,15 @@
       <c r="Z57" s="8"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="57"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="58"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -2554,15 +2568,15 @@
       <c r="Z58" s="8"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="57"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -2582,15 +2596,15 @@
       <c r="Z59" s="8"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="57"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="58"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -2610,15 +2624,15 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="57"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -2638,15 +2652,15 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="57"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="58"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -2666,15 +2680,15 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="57"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -2694,15 +2708,15 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="58"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -2722,15 +2736,15 @@
       <c r="Z64" s="8"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="57"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="58"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -2750,15 +2764,15 @@
       <c r="Z65" s="8"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="58"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -2778,15 +2792,15 @@
       <c r="Z66" s="8"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="53"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="57"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -2806,15 +2820,15 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="53"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="57"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="58"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -2834,15 +2848,15 @@
       <c r="Z68" s="8"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="53"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="57"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -2862,15 +2876,15 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="53"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="57"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="58"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -2890,15 +2904,15 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="53"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="57"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="58"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -2918,15 +2932,15 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="53"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="57"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="58"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -2946,15 +2960,15 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="53"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="57"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="58"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -2974,15 +2988,15 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="53"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="57"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="58"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -3002,15 +3016,15 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="57"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="58"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -3030,15 +3044,15 @@
       <c r="Z75" s="8"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="53"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="57"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="58"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -3058,15 +3072,15 @@
       <c r="Z76" s="8"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="57"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="58"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -3086,15 +3100,15 @@
       <c r="Z77" s="8"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="53"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="57"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="58"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -3114,15 +3128,15 @@
       <c r="Z78" s="8"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="53"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="57"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="58"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -3142,15 +3156,15 @@
       <c r="Z79" s="8"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="53"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="57"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="58"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -3170,15 +3184,15 @@
       <c r="Z80" s="8"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="57"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="58"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -3198,15 +3212,15 @@
       <c r="Z81" s="8"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="53"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="57"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="58"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -3226,15 +3240,15 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="53"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="57"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="58"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -3254,15 +3268,15 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="57"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="58"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -3282,15 +3296,15 @@
       <c r="Z84" s="8"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="53"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="57"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="58"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -3310,15 +3324,15 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="53"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="57"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="58"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -3338,15 +3352,15 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="53"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="57"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="58"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -3366,15 +3380,15 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="53"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="57"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="58"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -3394,15 +3408,15 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="53"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="57"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="58"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -3422,15 +3436,15 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="53"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="57"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="58"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -3450,15 +3464,15 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="53"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="57"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="58"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
@@ -3478,15 +3492,15 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="53"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="57"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="58"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
@@ -3506,15 +3520,15 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="53"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="57"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="58"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
@@ -3534,15 +3548,15 @@
       <c r="Z93" s="8"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="53"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="57"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="58"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
@@ -3562,15 +3576,15 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="53"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="57"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="58"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -3590,15 +3604,15 @@
       <c r="Z95" s="8"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="53"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="57"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="58"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
@@ -3618,15 +3632,15 @@
       <c r="Z96" s="8"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="53"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="57"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="58"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -3646,15 +3660,15 @@
       <c r="Z97" s="8"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="53"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="57"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="58"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -3674,15 +3688,15 @@
       <c r="Z98" s="8"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="53"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="57"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="58"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
@@ -3702,15 +3716,15 @@
       <c r="Z99" s="8"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="53"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="57"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="58"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
@@ -3730,15 +3744,15 @@
       <c r="Z100" s="8"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="53"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="57"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="58"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -3758,15 +3772,15 @@
       <c r="Z101" s="8"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="53"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="57"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="58"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
@@ -3786,15 +3800,15 @@
       <c r="Z102" s="8"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="53"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="57"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="58"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
@@ -3814,15 +3828,15 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="53"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="57"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="58"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
@@ -3842,15 +3856,15 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="53"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="57"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="58"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
@@ -3870,15 +3884,15 @@
       <c r="Z105" s="8"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="53"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="57"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="58"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
@@ -3898,15 +3912,15 @@
       <c r="Z106" s="8"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="53"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="57"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="58"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
@@ -3926,15 +3940,15 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="53"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="57"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="58"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
@@ -3954,15 +3968,15 @@
       <c r="Z108" s="8"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="53"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="57"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="58"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
@@ -3982,15 +3996,15 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="53"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="57"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="58"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
@@ -4010,15 +4024,15 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="53"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="57"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="58"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -4038,15 +4052,15 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="53"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="57"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="58"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -4066,15 +4080,15 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="53"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="57"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="58"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -4094,15 +4108,15 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="57"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="58"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -4122,15 +4136,15 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="54"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="57"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="58"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -4150,15 +4164,15 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="57"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="58"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -4178,15 +4192,15 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="53"/>
-      <c r="B117" s="54"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="54"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="57"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="58"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -4206,15 +4220,15 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="53"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="57"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="58"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -4234,15 +4248,15 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="53"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="57"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="58"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -4262,15 +4276,15 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="53"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="57"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="58"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
@@ -4290,15 +4304,15 @@
       <c r="Z120" s="8"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="53"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="57"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="58"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
@@ -4318,15 +4332,15 @@
       <c r="Z121" s="8"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="53"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="57"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="58"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -4346,15 +4360,15 @@
       <c r="Z122" s="8"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="53"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="57"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="58"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -4374,15 +4388,15 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="53"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="57"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="58"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -4402,15 +4416,15 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="53"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="57"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="58"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -4430,15 +4444,15 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="53"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="57"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="58"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -4458,15 +4472,15 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="53"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="57"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="58"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4486,15 +4500,15 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="53"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="55"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="57"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="58"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4514,15 +4528,15 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="53"/>
-      <c r="B129" s="54"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="57"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="58"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -4542,15 +4556,15 @@
       <c r="Z129" s="8"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="53"/>
-      <c r="B130" s="54"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="57"/>
+      <c r="A130" s="54"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="58"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -4570,15 +4584,15 @@
       <c r="Z130" s="8"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="53"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="55"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="57"/>
+      <c r="A131" s="54"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="58"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -4598,15 +4612,15 @@
       <c r="Z131" s="8"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="53"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="57"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="58"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -4626,15 +4640,15 @@
       <c r="Z132" s="8"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="53"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="57"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="58"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4654,15 +4668,15 @@
       <c r="Z133" s="8"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="53"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="57"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="58"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4682,15 +4696,15 @@
       <c r="Z134" s="8"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="53"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="57"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="58"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -4710,15 +4724,15 @@
       <c r="Z135" s="8"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="53"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="55"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="54"/>
-      <c r="H136" s="56"/>
-      <c r="I136" s="57"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="58"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
@@ -4738,15 +4752,15 @@
       <c r="Z136" s="8"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="53"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="55"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="54"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="57"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="58"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
@@ -4766,15 +4780,15 @@
       <c r="Z137" s="8"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="53"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="55"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="56"/>
-      <c r="I138" s="57"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="58"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -4794,15 +4808,15 @@
       <c r="Z138" s="8"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="53"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="55"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="57"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="58"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -4822,15 +4836,15 @@
       <c r="Z139" s="8"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="53"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="55"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="57"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="58"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -4850,15 +4864,15 @@
       <c r="Z140" s="8"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="53"/>
-      <c r="B141" s="54"/>
-      <c r="C141" s="55"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="54"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="57"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="58"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -4878,15 +4892,15 @@
       <c r="Z141" s="8"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="53"/>
-      <c r="B142" s="54"/>
-      <c r="C142" s="55"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="54"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="54"/>
-      <c r="H142" s="56"/>
-      <c r="I142" s="57"/>
+      <c r="A142" s="54"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="58"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
@@ -4906,15 +4920,15 @@
       <c r="Z142" s="8"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="53"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="55"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="56"/>
-      <c r="I143" s="57"/>
+      <c r="A143" s="54"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="58"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4934,15 +4948,15 @@
       <c r="Z143" s="8"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="53"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="55"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="57"/>
+      <c r="A144" s="54"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="58"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4962,15 +4976,15 @@
       <c r="Z144" s="8"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="53"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="55"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="54"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="57"/>
+      <c r="A145" s="54"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="58"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -4990,15 +5004,15 @@
       <c r="Z145" s="8"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="53"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="55"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="54"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="54"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="57"/>
+      <c r="A146" s="54"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="58"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -5018,15 +5032,15 @@
       <c r="Z146" s="8"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="53"/>
-      <c r="B147" s="54"/>
-      <c r="C147" s="55"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="57"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="58"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -5046,15 +5060,15 @@
       <c r="Z147" s="8"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="53"/>
-      <c r="B148" s="54"/>
-      <c r="C148" s="55"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="57"/>
+      <c r="A148" s="54"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="58"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -5074,15 +5088,15 @@
       <c r="Z148" s="8"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="53"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="55"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="54"/>
-      <c r="H149" s="56"/>
-      <c r="I149" s="57"/>
+      <c r="A149" s="54"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="58"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -5102,15 +5116,15 @@
       <c r="Z149" s="8"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="53"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="54"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="57"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="58"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -5130,15 +5144,15 @@
       <c r="Z150" s="8"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="53"/>
-      <c r="B151" s="54"/>
-      <c r="C151" s="55"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="57"/>
+      <c r="A151" s="54"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="55"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="58"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -5158,15 +5172,15 @@
       <c r="Z151" s="8"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="53"/>
-      <c r="B152" s="54"/>
-      <c r="C152" s="55"/>
-      <c r="D152" s="54"/>
-      <c r="E152" s="54"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="54"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="57"/>
+      <c r="A152" s="54"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="58"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
@@ -5186,15 +5200,15 @@
       <c r="Z152" s="8"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="53"/>
-      <c r="B153" s="54"/>
-      <c r="C153" s="55"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="54"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="57"/>
+      <c r="A153" s="54"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="55"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="58"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -5214,15 +5228,15 @@
       <c r="Z153" s="8"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="53"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="55"/>
-      <c r="D154" s="54"/>
-      <c r="E154" s="54"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="54"/>
-      <c r="H154" s="56"/>
-      <c r="I154" s="57"/>
+      <c r="A154" s="54"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="56"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="58"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
@@ -5242,15 +5256,15 @@
       <c r="Z154" s="8"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="53"/>
-      <c r="B155" s="54"/>
-      <c r="C155" s="55"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="54"/>
-      <c r="H155" s="56"/>
-      <c r="I155" s="57"/>
+      <c r="A155" s="54"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="58"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
@@ -5270,15 +5284,15 @@
       <c r="Z155" s="8"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="53"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="54"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="54"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="57"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="55"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="58"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
@@ -5298,15 +5312,15 @@
       <c r="Z156" s="8"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="53"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="54"/>
-      <c r="E157" s="54"/>
-      <c r="F157" s="54"/>
-      <c r="G157" s="54"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="57"/>
+      <c r="A157" s="54"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="55"/>
+      <c r="F157" s="55"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="58"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
@@ -5326,15 +5340,15 @@
       <c r="Z157" s="8"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="53"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="54"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="56"/>
-      <c r="I158" s="57"/>
+      <c r="A158" s="54"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="58"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -5354,15 +5368,15 @@
       <c r="Z158" s="8"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="53"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="54"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="56"/>
-      <c r="I159" s="57"/>
+      <c r="A159" s="54"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="56"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="55"/>
+      <c r="G159" s="55"/>
+      <c r="H159" s="57"/>
+      <c r="I159" s="58"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5382,15 +5396,15 @@
       <c r="Z159" s="8"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="53"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="54"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="56"/>
-      <c r="I160" s="57"/>
+      <c r="A160" s="54"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="55"/>
+      <c r="G160" s="55"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="58"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5410,15 +5424,15 @@
       <c r="Z160" s="8"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="53"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="55"/>
-      <c r="D161" s="54"/>
-      <c r="E161" s="54"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="54"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="57"/>
+      <c r="A161" s="54"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="56"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="55"/>
+      <c r="F161" s="55"/>
+      <c r="G161" s="55"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="58"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5438,15 +5452,15 @@
       <c r="Z161" s="8"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="53"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="54"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="54"/>
-      <c r="H162" s="56"/>
-      <c r="I162" s="57"/>
+      <c r="A162" s="54"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="56"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="55"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="58"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -5466,15 +5480,15 @@
       <c r="Z162" s="8"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="53"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="54"/>
-      <c r="E163" s="54"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="56"/>
-      <c r="I163" s="57"/>
+      <c r="A163" s="54"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="56"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="55"/>
+      <c r="G163" s="55"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="58"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -5494,15 +5508,15 @@
       <c r="Z163" s="8"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="53"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="55"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="56"/>
-      <c r="I164" s="57"/>
+      <c r="A164" s="54"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="56"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="55"/>
+      <c r="G164" s="55"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="58"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -5522,15 +5536,15 @@
       <c r="Z164" s="8"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="53"/>
-      <c r="B165" s="54"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="56"/>
-      <c r="I165" s="57"/>
+      <c r="A165" s="54"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="56"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="55"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="57"/>
+      <c r="I165" s="58"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5550,15 +5564,15 @@
       <c r="Z165" s="8"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="53"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="55"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="57"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="56"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="55"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="58"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5578,15 +5592,15 @@
       <c r="Z166" s="8"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="53"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="55"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="54"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="56"/>
-      <c r="I167" s="57"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="55"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="58"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5606,15 +5620,15 @@
       <c r="Z167" s="8"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="53"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="55"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="56"/>
-      <c r="I168" s="57"/>
+      <c r="A168" s="54"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="56"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="58"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -5634,15 +5648,15 @@
       <c r="Z168" s="8"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="53"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="55"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="54"/>
-      <c r="H169" s="56"/>
-      <c r="I169" s="57"/>
+      <c r="A169" s="54"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="58"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -5662,15 +5676,15 @@
       <c r="Z169" s="8"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="53"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="55"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="54"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="54"/>
-      <c r="H170" s="56"/>
-      <c r="I170" s="57"/>
+      <c r="A170" s="54"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="56"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="55"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="58"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -5690,15 +5704,15 @@
       <c r="Z170" s="8"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="53"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="56"/>
-      <c r="I171" s="57"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="56"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="55"/>
+      <c r="G171" s="55"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="58"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
@@ -5718,15 +5732,15 @@
       <c r="Z171" s="8"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="53"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="56"/>
-      <c r="I172" s="57"/>
+      <c r="A172" s="54"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="56"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="55"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="58"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -5746,15 +5760,15 @@
       <c r="Z172" s="8"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="53"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="55"/>
-      <c r="D173" s="54"/>
-      <c r="E173" s="54"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="54"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="57"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="56"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="55"/>
+      <c r="F173" s="55"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="58"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -5774,15 +5788,15 @@
       <c r="Z173" s="8"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="53"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="57"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="56"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="55"/>
+      <c r="G174" s="55"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="58"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -5802,15 +5816,15 @@
       <c r="Z174" s="8"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="53"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="57"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="56"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="55"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="58"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -5830,15 +5844,15 @@
       <c r="Z175" s="8"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="53"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="55"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="54"/>
-      <c r="H176" s="56"/>
-      <c r="I176" s="57"/>
+      <c r="A176" s="54"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="58"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -5858,15 +5872,15 @@
       <c r="Z176" s="8"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="53"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="55"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="54"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="56"/>
-      <c r="I177" s="57"/>
+      <c r="A177" s="54"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55"/>
+      <c r="F177" s="55"/>
+      <c r="G177" s="55"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="58"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -5886,15 +5900,15 @@
       <c r="Z177" s="8"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="53"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="54"/>
-      <c r="H178" s="56"/>
-      <c r="I178" s="57"/>
+      <c r="A178" s="54"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="55"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="58"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5914,15 +5928,15 @@
       <c r="Z178" s="8"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="53"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="55"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="56"/>
-      <c r="I179" s="57"/>
+      <c r="A179" s="54"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="55"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="58"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -5942,15 +5956,15 @@
       <c r="Z179" s="8"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="53"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
-      <c r="H180" s="56"/>
-      <c r="I180" s="57"/>
+      <c r="A180" s="54"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="58"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -5970,15 +5984,15 @@
       <c r="Z180" s="8"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="53"/>
-      <c r="B181" s="54"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="56"/>
-      <c r="I181" s="57"/>
+      <c r="A181" s="54"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="56"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="58"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -5998,15 +6012,15 @@
       <c r="Z181" s="8"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="53"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="57"/>
+      <c r="A182" s="54"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="58"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -6026,15 +6040,15 @@
       <c r="Z182" s="8"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="53"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="55"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="56"/>
-      <c r="I183" s="57"/>
+      <c r="A183" s="54"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="55"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="58"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -6054,15 +6068,15 @@
       <c r="Z183" s="8"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="53"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="55"/>
-      <c r="D184" s="54"/>
-      <c r="E184" s="54"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="56"/>
-      <c r="I184" s="57"/>
+      <c r="A184" s="54"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="57"/>
+      <c r="I184" s="58"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -6082,15 +6096,15 @@
       <c r="Z184" s="8"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="53"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="55"/>
-      <c r="D185" s="54"/>
-      <c r="E185" s="54"/>
-      <c r="F185" s="54"/>
-      <c r="G185" s="54"/>
-      <c r="H185" s="56"/>
-      <c r="I185" s="57"/>
+      <c r="A185" s="54"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="58"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
@@ -6110,15 +6124,15 @@
       <c r="Z185" s="8"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="53"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="55"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="54"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="54"/>
-      <c r="H186" s="56"/>
-      <c r="I186" s="57"/>
+      <c r="A186" s="54"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="56"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="55"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="58"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
@@ -6138,15 +6152,15 @@
       <c r="Z186" s="8"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="53"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="54"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="54"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="56"/>
-      <c r="I187" s="57"/>
+      <c r="A187" s="54"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="56"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="58"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
@@ -6166,15 +6180,15 @@
       <c r="Z187" s="8"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="53"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="55"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="56"/>
-      <c r="I188" s="57"/>
+      <c r="A188" s="54"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="55"/>
+      <c r="G188" s="55"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="58"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
@@ -6194,15 +6208,15 @@
       <c r="Z188" s="8"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="53"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="55"/>
-      <c r="D189" s="54"/>
-      <c r="E189" s="54"/>
-      <c r="F189" s="54"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="56"/>
-      <c r="I189" s="57"/>
+      <c r="A189" s="54"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="56"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="58"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -6222,15 +6236,15 @@
       <c r="Z189" s="8"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="53"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="55"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="54"/>
-      <c r="H190" s="56"/>
-      <c r="I190" s="57"/>
+      <c r="A190" s="54"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="56"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="55"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="58"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -6250,15 +6264,15 @@
       <c r="Z190" s="8"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="53"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="55"/>
-      <c r="D191" s="54"/>
-      <c r="E191" s="54"/>
-      <c r="F191" s="54"/>
-      <c r="G191" s="54"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="57"/>
+      <c r="A191" s="54"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="56"/>
+      <c r="D191" s="55"/>
+      <c r="E191" s="55"/>
+      <c r="F191" s="55"/>
+      <c r="G191" s="55"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="58"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
@@ -6278,15 +6292,15 @@
       <c r="Z191" s="8"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="A192" s="53"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="55"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="54"/>
-      <c r="F192" s="54"/>
-      <c r="G192" s="54"/>
-      <c r="H192" s="56"/>
-      <c r="I192" s="57"/>
+      <c r="A192" s="54"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="56"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="55"/>
+      <c r="G192" s="55"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="58"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -6306,15 +6320,15 @@
       <c r="Z192" s="8"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="53"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="55"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="57"/>
+      <c r="A193" s="54"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="55"/>
+      <c r="G193" s="55"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="58"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -6334,15 +6348,15 @@
       <c r="Z193" s="8"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="53"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="55"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="54"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="57"/>
+      <c r="A194" s="54"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="58"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -6362,15 +6376,15 @@
       <c r="Z194" s="8"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="53"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="55"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="56"/>
-      <c r="I195" s="57"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="56"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="58"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6390,15 +6404,15 @@
       <c r="Z195" s="8"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="53"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="55"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="56"/>
-      <c r="I196" s="57"/>
+      <c r="A196" s="54"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="56"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
+      <c r="G196" s="55"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="58"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -6418,15 +6432,15 @@
       <c r="Z196" s="8"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="53"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="55"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="56"/>
-      <c r="I197" s="57"/>
+      <c r="A197" s="54"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="56"/>
+      <c r="D197" s="55"/>
+      <c r="E197" s="55"/>
+      <c r="F197" s="55"/>
+      <c r="G197" s="55"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="58"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -6446,15 +6460,15 @@
       <c r="Z197" s="8"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="53"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="55"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="56"/>
-      <c r="I198" s="57"/>
+      <c r="A198" s="54"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="58"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -6474,15 +6488,15 @@
       <c r="Z198" s="8"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="A199" s="53"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="55"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="56"/>
-      <c r="I199" s="57"/>
+      <c r="A199" s="54"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="56"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="58"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6502,15 +6516,15 @@
       <c r="Z199" s="8"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="53"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="55"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="57"/>
+      <c r="A200" s="54"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="55"/>
+      <c r="F200" s="55"/>
+      <c r="G200" s="55"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="58"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6530,15 +6544,15 @@
       <c r="Z200" s="8"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="53"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="55"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="56"/>
-      <c r="I201" s="57"/>
+      <c r="A201" s="54"/>
+      <c r="B201" s="55"/>
+      <c r="C201" s="56"/>
+      <c r="D201" s="55"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="55"/>
+      <c r="G201" s="55"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="58"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
@@ -6558,15 +6572,15 @@
       <c r="Z201" s="8"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="53"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="55"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="56"/>
-      <c r="I202" s="57"/>
+      <c r="A202" s="54"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="56"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="55"/>
+      <c r="G202" s="55"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="58"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
@@ -6586,15 +6600,15 @@
       <c r="Z202" s="8"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="53"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="55"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="56"/>
-      <c r="I203" s="57"/>
+      <c r="A203" s="54"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="56"/>
+      <c r="D203" s="55"/>
+      <c r="E203" s="55"/>
+      <c r="F203" s="55"/>
+      <c r="G203" s="55"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="58"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
@@ -6614,15 +6628,15 @@
       <c r="Z203" s="8"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="53"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="55"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="56"/>
-      <c r="I204" s="57"/>
+      <c r="A204" s="54"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="56"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="55"/>
+      <c r="G204" s="55"/>
+      <c r="H204" s="57"/>
+      <c r="I204" s="58"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
@@ -6642,15 +6656,15 @@
       <c r="Z204" s="8"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="53"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="55"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="56"/>
-      <c r="I205" s="57"/>
+      <c r="A205" s="54"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="56"/>
+      <c r="D205" s="55"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="55"/>
+      <c r="G205" s="55"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="58"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
@@ -6670,15 +6684,15 @@
       <c r="Z205" s="8"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="A206" s="53"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="55"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="54"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="56"/>
-      <c r="I206" s="57"/>
+      <c r="A206" s="54"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="56"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="55"/>
+      <c r="G206" s="55"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="58"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
       <c r="L206" s="8"/>
@@ -6698,15 +6712,15 @@
       <c r="Z206" s="8"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="A207" s="53"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="55"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="56"/>
-      <c r="I207" s="57"/>
+      <c r="A207" s="54"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="56"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
+      <c r="G207" s="55"/>
+      <c r="H207" s="57"/>
+      <c r="I207" s="58"/>
       <c r="J207" s="8"/>
       <c r="K207" s="8"/>
       <c r="L207" s="8"/>
@@ -6726,15 +6740,15 @@
       <c r="Z207" s="8"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="A208" s="53"/>
-      <c r="B208" s="54"/>
-      <c r="C208" s="55"/>
-      <c r="D208" s="54"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="54"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="56"/>
-      <c r="I208" s="57"/>
+      <c r="A208" s="54"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="55"/>
+      <c r="G208" s="55"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="58"/>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
@@ -6754,15 +6768,15 @@
       <c r="Z208" s="8"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="A209" s="53"/>
-      <c r="B209" s="54"/>
-      <c r="C209" s="55"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="57"/>
+      <c r="A209" s="54"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="56"/>
+      <c r="D209" s="55"/>
+      <c r="E209" s="55"/>
+      <c r="F209" s="55"/>
+      <c r="G209" s="55"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="58"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
@@ -6782,15 +6796,15 @@
       <c r="Z209" s="8"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="53"/>
-      <c r="B210" s="54"/>
-      <c r="C210" s="55"/>
-      <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="54"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="56"/>
-      <c r="I210" s="57"/>
+      <c r="A210" s="54"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="56"/>
+      <c r="D210" s="55"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="55"/>
+      <c r="G210" s="55"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="58"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
@@ -6810,15 +6824,15 @@
       <c r="Z210" s="8"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="A211" s="53"/>
-      <c r="B211" s="54"/>
-      <c r="C211" s="55"/>
-      <c r="D211" s="54"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="56"/>
-      <c r="I211" s="57"/>
+      <c r="A211" s="54"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="55"/>
+      <c r="E211" s="55"/>
+      <c r="F211" s="55"/>
+      <c r="G211" s="55"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="58"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -6838,15 +6852,15 @@
       <c r="Z211" s="8"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="53"/>
-      <c r="B212" s="54"/>
-      <c r="C212" s="55"/>
-      <c r="D212" s="54"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="54"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="56"/>
-      <c r="I212" s="57"/>
+      <c r="A212" s="54"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="56"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="55"/>
+      <c r="G212" s="55"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="58"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
@@ -6866,15 +6880,15 @@
       <c r="Z212" s="8"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="A213" s="53"/>
-      <c r="B213" s="54"/>
-      <c r="C213" s="55"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="54"/>
-      <c r="G213" s="54"/>
-      <c r="H213" s="56"/>
-      <c r="I213" s="57"/>
+      <c r="A213" s="54"/>
+      <c r="B213" s="55"/>
+      <c r="C213" s="56"/>
+      <c r="D213" s="55"/>
+      <c r="E213" s="55"/>
+      <c r="F213" s="55"/>
+      <c r="G213" s="55"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="58"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
@@ -6894,15 +6908,15 @@
       <c r="Z213" s="8"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="A214" s="53"/>
-      <c r="B214" s="54"/>
-      <c r="C214" s="55"/>
-      <c r="D214" s="54"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="54"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="56"/>
-      <c r="I214" s="57"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="55"/>
+      <c r="C214" s="56"/>
+      <c r="D214" s="55"/>
+      <c r="E214" s="55"/>
+      <c r="F214" s="55"/>
+      <c r="G214" s="55"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="58"/>
       <c r="J214" s="8"/>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
@@ -6922,15 +6936,15 @@
       <c r="Z214" s="8"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="A215" s="53"/>
-      <c r="B215" s="54"/>
-      <c r="C215" s="55"/>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="56"/>
-      <c r="I215" s="57"/>
+      <c r="A215" s="54"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="56"/>
+      <c r="D215" s="55"/>
+      <c r="E215" s="55"/>
+      <c r="F215" s="55"/>
+      <c r="G215" s="55"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="58"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
@@ -6950,15 +6964,15 @@
       <c r="Z215" s="8"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="A216" s="53"/>
-      <c r="B216" s="54"/>
-      <c r="C216" s="55"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="56"/>
-      <c r="I216" s="57"/>
+      <c r="A216" s="54"/>
+      <c r="B216" s="55"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="55"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="55"/>
+      <c r="G216" s="55"/>
+      <c r="H216" s="57"/>
+      <c r="I216" s="58"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6978,15 +6992,15 @@
       <c r="Z216" s="8"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="A217" s="53"/>
-      <c r="B217" s="54"/>
-      <c r="C217" s="55"/>
-      <c r="D217" s="54"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="54"/>
-      <c r="G217" s="54"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="57"/>
+      <c r="A217" s="54"/>
+      <c r="B217" s="55"/>
+      <c r="C217" s="56"/>
+      <c r="D217" s="55"/>
+      <c r="E217" s="55"/>
+      <c r="F217" s="55"/>
+      <c r="G217" s="55"/>
+      <c r="H217" s="57"/>
+      <c r="I217" s="58"/>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
@@ -7006,15 +7020,15 @@
       <c r="Z217" s="8"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="A218" s="53"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="55"/>
-      <c r="D218" s="54"/>
-      <c r="E218" s="54"/>
-      <c r="F218" s="54"/>
-      <c r="G218" s="54"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="57"/>
+      <c r="A218" s="54"/>
+      <c r="B218" s="55"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="55"/>
+      <c r="E218" s="55"/>
+      <c r="F218" s="55"/>
+      <c r="G218" s="55"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="58"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
       <c r="L218" s="8"/>
@@ -7034,15 +7048,15 @@
       <c r="Z218" s="8"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="A219" s="53"/>
-      <c r="B219" s="54"/>
-      <c r="C219" s="55"/>
-      <c r="D219" s="54"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="54"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="57"/>
+      <c r="A219" s="54"/>
+      <c r="B219" s="55"/>
+      <c r="C219" s="56"/>
+      <c r="D219" s="55"/>
+      <c r="E219" s="55"/>
+      <c r="F219" s="55"/>
+      <c r="G219" s="55"/>
+      <c r="H219" s="57"/>
+      <c r="I219" s="58"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
@@ -7062,15 +7076,15 @@
       <c r="Z219" s="8"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="A220" s="53"/>
-      <c r="B220" s="54"/>
-      <c r="C220" s="55"/>
-      <c r="D220" s="54"/>
-      <c r="E220" s="54"/>
-      <c r="F220" s="54"/>
-      <c r="G220" s="54"/>
-      <c r="H220" s="56"/>
-      <c r="I220" s="57"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="56"/>
+      <c r="D220" s="55"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="55"/>
+      <c r="G220" s="55"/>
+      <c r="H220" s="57"/>
+      <c r="I220" s="58"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
       <c r="L220" s="8"/>
@@ -7090,15 +7104,15 @@
       <c r="Z220" s="8"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="A221" s="53"/>
-      <c r="B221" s="54"/>
-      <c r="C221" s="55"/>
-      <c r="D221" s="54"/>
-      <c r="E221" s="54"/>
-      <c r="F221" s="54"/>
-      <c r="G221" s="54"/>
-      <c r="H221" s="56"/>
-      <c r="I221" s="57"/>
+      <c r="A221" s="54"/>
+      <c r="B221" s="55"/>
+      <c r="C221" s="56"/>
+      <c r="D221" s="55"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="55"/>
+      <c r="G221" s="55"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="58"/>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
       <c r="L221" s="8"/>
@@ -7118,15 +7132,15 @@
       <c r="Z221" s="8"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="A222" s="53"/>
-      <c r="B222" s="54"/>
-      <c r="C222" s="55"/>
-      <c r="D222" s="54"/>
-      <c r="E222" s="54"/>
-      <c r="F222" s="54"/>
-      <c r="G222" s="54"/>
-      <c r="H222" s="56"/>
-      <c r="I222" s="57"/>
+      <c r="A222" s="54"/>
+      <c r="B222" s="55"/>
+      <c r="C222" s="56"/>
+      <c r="D222" s="55"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="55"/>
+      <c r="G222" s="55"/>
+      <c r="H222" s="57"/>
+      <c r="I222" s="58"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
@@ -7146,15 +7160,15 @@
       <c r="Z222" s="8"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="A223" s="53"/>
-      <c r="B223" s="54"/>
-      <c r="C223" s="55"/>
-      <c r="D223" s="54"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="54"/>
-      <c r="G223" s="54"/>
-      <c r="H223" s="56"/>
-      <c r="I223" s="57"/>
+      <c r="A223" s="54"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="56"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="55"/>
+      <c r="G223" s="55"/>
+      <c r="H223" s="57"/>
+      <c r="I223" s="58"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
@@ -7174,15 +7188,15 @@
       <c r="Z223" s="8"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="A224" s="53"/>
-      <c r="B224" s="54"/>
-      <c r="C224" s="55"/>
-      <c r="D224" s="54"/>
-      <c r="E224" s="54"/>
-      <c r="F224" s="54"/>
-      <c r="G224" s="54"/>
-      <c r="H224" s="56"/>
-      <c r="I224" s="57"/>
+      <c r="A224" s="54"/>
+      <c r="B224" s="55"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="55"/>
+      <c r="E224" s="55"/>
+      <c r="F224" s="55"/>
+      <c r="G224" s="55"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="58"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
@@ -7202,15 +7216,15 @@
       <c r="Z224" s="8"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="A225" s="53"/>
-      <c r="B225" s="54"/>
-      <c r="C225" s="55"/>
-      <c r="D225" s="54"/>
-      <c r="E225" s="54"/>
-      <c r="F225" s="54"/>
-      <c r="G225" s="54"/>
-      <c r="H225" s="56"/>
-      <c r="I225" s="57"/>
+      <c r="A225" s="54"/>
+      <c r="B225" s="55"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="55"/>
+      <c r="E225" s="55"/>
+      <c r="F225" s="55"/>
+      <c r="G225" s="55"/>
+      <c r="H225" s="57"/>
+      <c r="I225" s="58"/>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -7230,15 +7244,15 @@
       <c r="Z225" s="8"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="A226" s="53"/>
-      <c r="B226" s="54"/>
-      <c r="C226" s="55"/>
-      <c r="D226" s="54"/>
-      <c r="E226" s="54"/>
-      <c r="F226" s="54"/>
-      <c r="G226" s="54"/>
-      <c r="H226" s="56"/>
-      <c r="I226" s="57"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="55"/>
+      <c r="C226" s="56"/>
+      <c r="D226" s="55"/>
+      <c r="E226" s="55"/>
+      <c r="F226" s="55"/>
+      <c r="G226" s="55"/>
+      <c r="H226" s="57"/>
+      <c r="I226" s="58"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -7258,15 +7272,15 @@
       <c r="Z226" s="8"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="A227" s="53"/>
-      <c r="B227" s="54"/>
-      <c r="C227" s="55"/>
-      <c r="D227" s="54"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="54"/>
-      <c r="H227" s="56"/>
-      <c r="I227" s="57"/>
+      <c r="A227" s="54"/>
+      <c r="B227" s="55"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="55"/>
+      <c r="E227" s="55"/>
+      <c r="F227" s="55"/>
+      <c r="G227" s="55"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="58"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
@@ -7286,15 +7300,15 @@
       <c r="Z227" s="8"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="A228" s="53"/>
-      <c r="B228" s="54"/>
-      <c r="C228" s="55"/>
-      <c r="D228" s="54"/>
-      <c r="E228" s="54"/>
-      <c r="F228" s="54"/>
-      <c r="G228" s="54"/>
-      <c r="H228" s="56"/>
-      <c r="I228" s="57"/>
+      <c r="A228" s="54"/>
+      <c r="B228" s="55"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="55"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="55"/>
+      <c r="G228" s="55"/>
+      <c r="H228" s="57"/>
+      <c r="I228" s="58"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -7314,15 +7328,15 @@
       <c r="Z228" s="8"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="A229" s="53"/>
-      <c r="B229" s="54"/>
-      <c r="C229" s="55"/>
-      <c r="D229" s="54"/>
-      <c r="E229" s="54"/>
-      <c r="F229" s="54"/>
-      <c r="G229" s="54"/>
-      <c r="H229" s="56"/>
-      <c r="I229" s="57"/>
+      <c r="A229" s="54"/>
+      <c r="B229" s="55"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="55"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="55"/>
+      <c r="G229" s="55"/>
+      <c r="H229" s="57"/>
+      <c r="I229" s="58"/>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -7342,15 +7356,15 @@
       <c r="Z229" s="8"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="A230" s="53"/>
-      <c r="B230" s="54"/>
-      <c r="C230" s="55"/>
-      <c r="D230" s="54"/>
-      <c r="E230" s="54"/>
-      <c r="F230" s="54"/>
-      <c r="G230" s="54"/>
-      <c r="H230" s="56"/>
-      <c r="I230" s="57"/>
+      <c r="A230" s="54"/>
+      <c r="B230" s="55"/>
+      <c r="C230" s="56"/>
+      <c r="D230" s="55"/>
+      <c r="E230" s="55"/>
+      <c r="F230" s="55"/>
+      <c r="G230" s="55"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="58"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -7370,15 +7384,15 @@
       <c r="Z230" s="8"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="A231" s="53"/>
-      <c r="B231" s="54"/>
-      <c r="C231" s="55"/>
-      <c r="D231" s="54"/>
-      <c r="E231" s="54"/>
-      <c r="F231" s="54"/>
-      <c r="G231" s="54"/>
-      <c r="H231" s="56"/>
-      <c r="I231" s="57"/>
+      <c r="A231" s="54"/>
+      <c r="B231" s="55"/>
+      <c r="C231" s="56"/>
+      <c r="D231" s="55"/>
+      <c r="E231" s="55"/>
+      <c r="F231" s="55"/>
+      <c r="G231" s="55"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="58"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
@@ -7398,15 +7412,15 @@
       <c r="Z231" s="8"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="A232" s="53"/>
-      <c r="B232" s="54"/>
-      <c r="C232" s="55"/>
-      <c r="D232" s="54"/>
-      <c r="E232" s="54"/>
-      <c r="F232" s="54"/>
-      <c r="G232" s="54"/>
-      <c r="H232" s="56"/>
-      <c r="I232" s="57"/>
+      <c r="A232" s="54"/>
+      <c r="B232" s="55"/>
+      <c r="C232" s="56"/>
+      <c r="D232" s="55"/>
+      <c r="E232" s="55"/>
+      <c r="F232" s="55"/>
+      <c r="G232" s="55"/>
+      <c r="H232" s="57"/>
+      <c r="I232" s="58"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -7426,15 +7440,15 @@
       <c r="Z232" s="8"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="A233" s="53"/>
-      <c r="B233" s="54"/>
-      <c r="C233" s="55"/>
-      <c r="D233" s="54"/>
-      <c r="E233" s="54"/>
-      <c r="F233" s="54"/>
-      <c r="G233" s="54"/>
-      <c r="H233" s="56"/>
-      <c r="I233" s="57"/>
+      <c r="A233" s="54"/>
+      <c r="B233" s="55"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="55"/>
+      <c r="E233" s="55"/>
+      <c r="F233" s="55"/>
+      <c r="G233" s="55"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="58"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -7454,15 +7468,15 @@
       <c r="Z233" s="8"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="A234" s="53"/>
-      <c r="B234" s="54"/>
-      <c r="C234" s="55"/>
-      <c r="D234" s="54"/>
-      <c r="E234" s="54"/>
-      <c r="F234" s="54"/>
-      <c r="G234" s="54"/>
-      <c r="H234" s="56"/>
-      <c r="I234" s="57"/>
+      <c r="A234" s="54"/>
+      <c r="B234" s="55"/>
+      <c r="C234" s="56"/>
+      <c r="D234" s="55"/>
+      <c r="E234" s="55"/>
+      <c r="F234" s="55"/>
+      <c r="G234" s="55"/>
+      <c r="H234" s="57"/>
+      <c r="I234" s="58"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
       <c r="L234" s="8"/>
@@ -7482,15 +7496,15 @@
       <c r="Z234" s="8"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="A235" s="53"/>
-      <c r="B235" s="54"/>
-      <c r="C235" s="55"/>
-      <c r="D235" s="54"/>
-      <c r="E235" s="54"/>
-      <c r="F235" s="54"/>
-      <c r="G235" s="54"/>
-      <c r="H235" s="56"/>
-      <c r="I235" s="57"/>
+      <c r="A235" s="54"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="56"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="55"/>
+      <c r="G235" s="55"/>
+      <c r="H235" s="57"/>
+      <c r="I235" s="58"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
@@ -7510,15 +7524,15 @@
       <c r="Z235" s="8"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="A236" s="53"/>
-      <c r="B236" s="54"/>
-      <c r="C236" s="55"/>
-      <c r="D236" s="54"/>
-      <c r="E236" s="54"/>
-      <c r="F236" s="54"/>
-      <c r="G236" s="54"/>
-      <c r="H236" s="56"/>
-      <c r="I236" s="57"/>
+      <c r="A236" s="54"/>
+      <c r="B236" s="55"/>
+      <c r="C236" s="56"/>
+      <c r="D236" s="55"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="55"/>
+      <c r="G236" s="55"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="58"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
       <c r="L236" s="8"/>
@@ -7538,15 +7552,15 @@
       <c r="Z236" s="8"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="A237" s="53"/>
-      <c r="B237" s="54"/>
-      <c r="C237" s="55"/>
-      <c r="D237" s="54"/>
-      <c r="E237" s="54"/>
-      <c r="F237" s="54"/>
-      <c r="G237" s="54"/>
-      <c r="H237" s="56"/>
-      <c r="I237" s="57"/>
+      <c r="A237" s="54"/>
+      <c r="B237" s="55"/>
+      <c r="C237" s="56"/>
+      <c r="D237" s="55"/>
+      <c r="E237" s="55"/>
+      <c r="F237" s="55"/>
+      <c r="G237" s="55"/>
+      <c r="H237" s="57"/>
+      <c r="I237" s="58"/>
       <c r="J237" s="8"/>
       <c r="K237" s="8"/>
       <c r="L237" s="8"/>
@@ -7566,15 +7580,15 @@
       <c r="Z237" s="8"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="A238" s="53"/>
-      <c r="B238" s="54"/>
-      <c r="C238" s="55"/>
-      <c r="D238" s="54"/>
-      <c r="E238" s="54"/>
-      <c r="F238" s="54"/>
-      <c r="G238" s="54"/>
-      <c r="H238" s="56"/>
-      <c r="I238" s="57"/>
+      <c r="A238" s="54"/>
+      <c r="B238" s="55"/>
+      <c r="C238" s="56"/>
+      <c r="D238" s="55"/>
+      <c r="E238" s="55"/>
+      <c r="F238" s="55"/>
+      <c r="G238" s="55"/>
+      <c r="H238" s="57"/>
+      <c r="I238" s="58"/>
       <c r="J238" s="8"/>
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>

--- a/modelo_expedicao_checklist2307.xlsx
+++ b/modelo_expedicao_checklist2307.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>REGISTRO DA QUALIDADE</t>
   </si>
@@ -19,22 +19,16 @@
     <t>Código:</t>
   </si>
   <si>
-    <t>RQ CQ-011-002</t>
+    <t>RQ CQ-011-003</t>
   </si>
   <si>
     <t>Data de Emissão:</t>
-  </si>
-  <si>
-    <t>01/02/2024</t>
   </si>
   <si>
     <t>CONTROLE DA QUALIDADE</t>
   </si>
   <si>
     <t>Data da Última Revisão:</t>
-  </si>
-  <si>
-    <t>22/04/2024</t>
   </si>
   <si>
     <t>Página:</t>
@@ -143,11 +137,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -172,13 +167,24 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="28.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="28.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="24.0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -189,11 +195,6 @@
     </font>
     <font>
       <sz val="25.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="24.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -214,19 +215,30 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="23.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="18.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="22.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="22.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -412,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -428,52 +440,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf quotePrefix="1" borderId="5" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -482,34 +494,37 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="12" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="4" fontId="13" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="12" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="4" fontId="13" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="5" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="14" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="5" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -521,53 +536,53 @@
     <xf borderId="13" fillId="5" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="17" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="17" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="18" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -930,8 +945,8 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="14" t="s">
-        <v>4</v>
+      <c r="J2" s="14">
+        <v>45293.0</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
@@ -955,19 +970,19 @@
     <row r="3" ht="39.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="14" t="s">
-        <v>7</v>
+      <c r="J3" s="14">
+        <v>45710.0</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -996,7 +1011,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1024,7 +1039,7 @@
     </row>
     <row r="5" ht="35.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1056,7 +1071,7 @@
     </row>
     <row r="6" ht="6.0" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1088,18 +1103,18 @@
     </row>
     <row r="7" ht="39.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="E7" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1126,19 +1141,19 @@
     </row>
     <row r="8" ht="69.0" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8"/>
       <c r="F8" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1164,21 +1179,21 @@
     </row>
     <row r="9" ht="39.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
       <c r="F9" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1204,19 +1219,19 @@
     </row>
     <row r="10" ht="39.0" customHeight="1">
       <c r="A10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1248,25 +1263,25 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="H11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="I11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="J11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="K11" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>35</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -1290,571 +1305,571 @@
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
     </row>
     <row r="13" ht="52.5" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
     </row>
     <row r="14" ht="52.5" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
     </row>
     <row r="15" ht="52.5" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
     </row>
     <row r="16" ht="52.5" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
     </row>
     <row r="17" ht="52.5" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
     </row>
     <row r="18" ht="52.5" customHeight="1">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
     </row>
     <row r="19" ht="52.5" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
     </row>
     <row r="20" ht="52.5" customHeight="1">
       <c r="A20" s="37"/>
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
     </row>
     <row r="21" ht="52.5" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
     </row>
     <row r="22" ht="52.5" customHeight="1">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
     </row>
     <row r="23" ht="52.5" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
     </row>
     <row r="24" ht="52.5" customHeight="1">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
     </row>
     <row r="25" ht="52.5" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
     </row>
     <row r="26" ht="52.5" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
     </row>
     <row r="27" ht="52.5" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
     </row>
     <row r="28" ht="52.5" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
     </row>
     <row r="29" ht="52.5" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
     </row>
     <row r="30" ht="61.5" customHeight="1">
-      <c r="A30" s="43" t="s">
-        <v>24</v>
+      <c r="A30" s="44" t="s">
+        <v>22</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>36</v>
+      <c r="B30" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8"/>
       <c r="F30" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="H30" s="45" t="s">
-        <v>39</v>
+      <c r="H30" s="46" t="s">
+        <v>37</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -1875,17 +1890,17 @@
       <c r="AB30" s="9"/>
     </row>
     <row r="31" ht="60.0" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="6"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -1905,17 +1920,17 @@
       <c r="AB31" s="9"/>
     </row>
     <row r="32" ht="60.0" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -1935,17 +1950,17 @@
       <c r="AB32" s="9"/>
     </row>
     <row r="33" ht="60.0" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="6"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -1965,17 +1980,17 @@
       <c r="AB33" s="9"/>
     </row>
     <row r="34" ht="60.0" customHeight="1">
-      <c r="A34" s="46"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="6"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -1995,17 +2010,17 @@
       <c r="AB34" s="9"/>
     </row>
     <row r="35" ht="60.0" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="6"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2025,17 +2040,17 @@
       <c r="AB35" s="9"/>
     </row>
     <row r="36" ht="60.0" customHeight="1">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="6"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2055,17 +2070,17 @@
       <c r="AB36" s="9"/>
     </row>
     <row r="37" ht="60.0" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="6"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2085,21 +2100,21 @@
       <c r="AB37" s="9"/>
     </row>
     <row r="38" ht="69.75" customHeight="1">
-      <c r="A38" s="50" t="s">
-        <v>40</v>
+      <c r="A38" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="51"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="52" t="s">
-        <v>41</v>
+      <c r="G38" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2119,17 +2134,17 @@
       <c r="AB38" s="9"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2149,17 +2164,17 @@
       <c r="AB39" s="9"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2179,17 +2194,17 @@
       <c r="AB40" s="9"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2209,17 +2224,17 @@
       <c r="AB41" s="9"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2239,17 +2254,17 @@
       <c r="AB42" s="9"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -2269,17 +2284,17 @@
       <c r="AB43" s="9"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2299,17 +2314,17 @@
       <c r="AB44" s="9"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -2329,17 +2344,17 @@
       <c r="AB45" s="9"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2359,17 +2374,17 @@
       <c r="AB46" s="9"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -2389,17 +2404,17 @@
       <c r="AB47" s="9"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2419,17 +2434,17 @@
       <c r="AB48" s="9"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -2449,17 +2464,17 @@
       <c r="AB49" s="9"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -2479,17 +2494,17 @@
       <c r="AB50" s="9"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -2509,17 +2524,17 @@
       <c r="AB51" s="9"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="54"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -2539,17 +2554,17 @@
       <c r="AB52" s="9"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -2569,17 +2584,17 @@
       <c r="AB53" s="9"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -2599,17 +2614,17 @@
       <c r="AB54" s="9"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="54"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -2629,17 +2644,17 @@
       <c r="AB55" s="9"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -2659,17 +2674,17 @@
       <c r="AB56" s="9"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -2689,17 +2704,17 @@
       <c r="AB57" s="9"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -2719,17 +2734,17 @@
       <c r="AB58" s="9"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -2749,17 +2764,17 @@
       <c r="AB59" s="9"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -2779,17 +2794,17 @@
       <c r="AB60" s="9"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="54"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -2809,17 +2824,17 @@
       <c r="AB61" s="9"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -2839,17 +2854,17 @@
       <c r="AB62" s="9"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="54"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -2869,17 +2884,17 @@
       <c r="AB63" s="9"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -2899,17 +2914,17 @@
       <c r="AB64" s="9"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="54"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -2929,17 +2944,17 @@
       <c r="AB65" s="9"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -2959,17 +2974,17 @@
       <c r="AB66" s="9"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -2989,17 +3004,17 @@
       <c r="AB67" s="9"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -3019,17 +3034,17 @@
       <c r="AB68" s="9"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="54"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -3049,17 +3064,17 @@
       <c r="AB69" s="9"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -3079,17 +3094,17 @@
       <c r="AB70" s="9"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="54"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
@@ -3109,17 +3124,17 @@
       <c r="AB71" s="9"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="54"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -3139,17 +3154,17 @@
       <c r="AB72" s="9"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -3169,17 +3184,17 @@
       <c r="AB73" s="9"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="54"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -3199,17 +3214,17 @@
       <c r="AB74" s="9"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="54"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -3229,17 +3244,17 @@
       <c r="AB75" s="9"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -3259,17 +3274,17 @@
       <c r="AB76" s="9"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="54"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -3289,17 +3304,17 @@
       <c r="AB77" s="9"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="54"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -3319,17 +3334,17 @@
       <c r="AB78" s="9"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -3349,17 +3364,17 @@
       <c r="AB79" s="9"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="54"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="58"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -3379,17 +3394,17 @@
       <c r="AB80" s="9"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="54"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -3409,17 +3424,17 @@
       <c r="AB81" s="9"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="54"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -3439,17 +3454,17 @@
       <c r="AB82" s="9"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -3469,17 +3484,17 @@
       <c r="AB83" s="9"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -3499,17 +3514,17 @@
       <c r="AB84" s="9"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="54"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -3529,17 +3544,17 @@
       <c r="AB85" s="9"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="54"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -3559,17 +3574,17 @@
       <c r="AB86" s="9"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="54"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -3589,17 +3604,17 @@
       <c r="AB87" s="9"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="54"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -3619,17 +3634,17 @@
       <c r="AB88" s="9"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="54"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -3649,17 +3664,17 @@
       <c r="AB89" s="9"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -3679,17 +3694,17 @@
       <c r="AB90" s="9"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="54"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -3709,17 +3724,17 @@
       <c r="AB91" s="9"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -3739,17 +3754,17 @@
       <c r="AB92" s="9"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="54"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -3769,17 +3784,17 @@
       <c r="AB93" s="9"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -3799,17 +3814,17 @@
       <c r="AB94" s="9"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="54"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="58"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -3829,17 +3844,17 @@
       <c r="AB95" s="9"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="58"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
@@ -3859,17 +3874,17 @@
       <c r="AB96" s="9"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="54"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="58"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
@@ -3889,17 +3904,17 @@
       <c r="AB97" s="9"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="54"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -3919,17 +3934,17 @@
       <c r="AB98" s="9"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -3949,17 +3964,17 @@
       <c r="AB99" s="9"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="54"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
@@ -3979,17 +3994,17 @@
       <c r="AB100" s="9"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="54"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="58"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -4009,17 +4024,17 @@
       <c r="AB101" s="9"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="54"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -4039,17 +4054,17 @@
       <c r="AB102" s="9"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="54"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -4069,17 +4084,17 @@
       <c r="AB103" s="9"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="54"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -4099,17 +4114,17 @@
       <c r="AB104" s="9"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="54"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="58"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -4129,17 +4144,17 @@
       <c r="AB105" s="9"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="54"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="58"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -4159,17 +4174,17 @@
       <c r="AB106" s="9"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="54"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -4189,17 +4204,17 @@
       <c r="AB107" s="9"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="54"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -4219,17 +4234,17 @@
       <c r="AB108" s="9"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="54"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
-      <c r="K109" s="58"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59"/>
+      <c r="K109" s="59"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -4249,17 +4264,17 @@
       <c r="AB109" s="9"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="54"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="58"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="59"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
@@ -4279,17 +4294,17 @@
       <c r="AB110" s="9"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="54"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="58"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
@@ -4309,17 +4324,17 @@
       <c r="AB111" s="9"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="54"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
-      <c r="K112" s="58"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -4339,17 +4354,17 @@
       <c r="AB112" s="9"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="54"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
-      <c r="K113" s="58"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="59"/>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
@@ -4369,17 +4384,17 @@
       <c r="AB113" s="9"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="54"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="58"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="59"/>
+      <c r="K114" s="59"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
@@ -4399,17 +4414,17 @@
       <c r="AB114" s="9"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="54"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="55"/>
-      <c r="G115" s="55"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="59"/>
+      <c r="J115" s="59"/>
+      <c r="K115" s="59"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
@@ -4429,17 +4444,17 @@
       <c r="AB115" s="9"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="54"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="58"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="59"/>
+      <c r="J116" s="59"/>
+      <c r="K116" s="59"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -4459,17 +4474,17 @@
       <c r="AB116" s="9"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="54"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="55"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="58"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="59"/>
+      <c r="K117" s="59"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
@@ -4489,17 +4504,17 @@
       <c r="AB117" s="9"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="54"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="57"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="59"/>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
@@ -4519,17 +4534,17 @@
       <c r="AB118" s="9"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="54"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="57"/>
-      <c r="I119" s="58"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="58"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="56"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="59"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
@@ -4549,17 +4564,17 @@
       <c r="AB119" s="9"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="54"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="58"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="59"/>
+      <c r="J120" s="59"/>
+      <c r="K120" s="59"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
@@ -4579,17 +4594,17 @@
       <c r="AB120" s="9"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="54"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="56"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="58"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="59"/>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
@@ -4609,17 +4624,17 @@
       <c r="AB121" s="9"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="54"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="58"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="58"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
@@ -4639,17 +4654,17 @@
       <c r="AB122" s="9"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="54"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="56"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="58"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="59"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
@@ -4669,17 +4684,17 @@
       <c r="AB123" s="9"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="54"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="58"/>
-      <c r="J124" s="58"/>
-      <c r="K124" s="58"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="58"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
@@ -4699,17 +4714,17 @@
       <c r="AB124" s="9"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="54"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="58"/>
-      <c r="J125" s="58"/>
-      <c r="K125" s="58"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="59"/>
+      <c r="J125" s="59"/>
+      <c r="K125" s="59"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -4729,17 +4744,17 @@
       <c r="AB125" s="9"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="54"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="56"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="58"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="58"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -4759,17 +4774,17 @@
       <c r="AB126" s="9"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="54"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="57"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="58"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="56"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="59"/>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
@@ -4789,17 +4804,17 @@
       <c r="AB127" s="9"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="54"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="58"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="56"/>
+      <c r="H128" s="58"/>
+      <c r="I128" s="59"/>
+      <c r="J128" s="59"/>
+      <c r="K128" s="59"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
@@ -4819,17 +4834,17 @@
       <c r="AB128" s="9"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="54"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="57"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="58"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="58"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="59"/>
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
@@ -4849,17 +4864,17 @@
       <c r="AB129" s="9"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="54"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="55"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
-      <c r="K130" s="58"/>
+      <c r="A130" s="55"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="56"/>
+      <c r="H130" s="58"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="59"/>
+      <c r="K130" s="59"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
@@ -4879,17 +4894,17 @@
       <c r="AB130" s="9"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="54"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="58"/>
+      <c r="A131" s="55"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="59"/>
+      <c r="J131" s="59"/>
+      <c r="K131" s="59"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
@@ -4909,17 +4924,17 @@
       <c r="AB131" s="9"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="54"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="58"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="59"/>
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
@@ -4939,17 +4954,17 @@
       <c r="AB132" s="9"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="54"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="58"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="59"/>
+      <c r="K133" s="59"/>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
@@ -4969,17 +4984,17 @@
       <c r="AB133" s="9"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="54"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="58"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
@@ -4999,17 +5014,17 @@
       <c r="AB134" s="9"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="54"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="56"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="55"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="58"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="59"/>
+      <c r="J135" s="59"/>
+      <c r="K135" s="59"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
@@ -5029,17 +5044,17 @@
       <c r="AB135" s="9"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="54"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="55"/>
-      <c r="H136" s="57"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="58"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="56"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="59"/>
+      <c r="J136" s="59"/>
+      <c r="K136" s="59"/>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
@@ -5059,17 +5074,17 @@
       <c r="AB136" s="9"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="54"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="56"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="57"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="58"/>
-      <c r="K137" s="58"/>
+      <c r="A137" s="55"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="56"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="59"/>
+      <c r="J137" s="59"/>
+      <c r="K137" s="59"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
@@ -5089,17 +5104,17 @@
       <c r="AB137" s="9"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="54"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="56"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="57"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="58"/>
+      <c r="A138" s="55"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="56"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="59"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="59"/>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
@@ -5119,17 +5134,17 @@
       <c r="AB138" s="9"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="54"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="56"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="57"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="58"/>
+      <c r="A139" s="55"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="59"/>
+      <c r="J139" s="59"/>
+      <c r="K139" s="59"/>
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
@@ -5149,17 +5164,17 @@
       <c r="AB139" s="9"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="54"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="56"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="57"/>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="58"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="59"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="59"/>
       <c r="L140" s="9"/>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
@@ -5179,17 +5194,17 @@
       <c r="AB140" s="9"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="54"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="56"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="57"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="58"/>
+      <c r="A141" s="55"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="59"/>
+      <c r="J141" s="59"/>
+      <c r="K141" s="59"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
@@ -5209,17 +5224,17 @@
       <c r="AB141" s="9"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="54"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="56"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="55"/>
-      <c r="H142" s="57"/>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="58"/>
+      <c r="A142" s="55"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="56"/>
+      <c r="H142" s="58"/>
+      <c r="I142" s="59"/>
+      <c r="J142" s="59"/>
+      <c r="K142" s="59"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
@@ -5239,17 +5254,17 @@
       <c r="AB142" s="9"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="54"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="56"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="57"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="58"/>
-      <c r="K143" s="58"/>
+      <c r="A143" s="55"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="59"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="59"/>
       <c r="L143" s="9"/>
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
@@ -5269,17 +5284,17 @@
       <c r="AB143" s="9"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="54"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="56"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="58"/>
-      <c r="K144" s="58"/>
+      <c r="A144" s="55"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="59"/>
+      <c r="J144" s="59"/>
+      <c r="K144" s="59"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
@@ -5299,17 +5314,17 @@
       <c r="AB144" s="9"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="54"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="56"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="57"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="58"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="59"/>
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
@@ -5329,17 +5344,17 @@
       <c r="AB145" s="9"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="54"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="56"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="58"/>
-      <c r="J146" s="58"/>
-      <c r="K146" s="58"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="59"/>
+      <c r="J146" s="59"/>
+      <c r="K146" s="59"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
@@ -5359,17 +5374,17 @@
       <c r="AB146" s="9"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="54"/>
-      <c r="B147" s="55"/>
-      <c r="C147" s="56"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="55"/>
-      <c r="F147" s="55"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="57"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="58"/>
+      <c r="A147" s="55"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="56"/>
+      <c r="H147" s="58"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="59"/>
+      <c r="K147" s="59"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
@@ -5389,17 +5404,17 @@
       <c r="AB147" s="9"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="54"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="55"/>
-      <c r="F148" s="55"/>
-      <c r="G148" s="55"/>
-      <c r="H148" s="57"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="58"/>
+      <c r="A148" s="55"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="59"/>
+      <c r="J148" s="59"/>
+      <c r="K148" s="59"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
@@ -5419,17 +5434,17 @@
       <c r="AB148" s="9"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="54"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="56"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="55"/>
-      <c r="F149" s="55"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="57"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="58"/>
+      <c r="A149" s="55"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="58"/>
+      <c r="I149" s="59"/>
+      <c r="J149" s="59"/>
+      <c r="K149" s="59"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
@@ -5449,17 +5464,17 @@
       <c r="AB149" s="9"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="54"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="56"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="57"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="58"/>
+      <c r="A150" s="55"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="59"/>
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
@@ -5479,17 +5494,17 @@
       <c r="AB150" s="9"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="54"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="55"/>
-      <c r="F151" s="55"/>
-      <c r="G151" s="55"/>
-      <c r="H151" s="57"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="58"/>
+      <c r="A151" s="55"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="59"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
@@ -5509,17 +5524,17 @@
       <c r="AB151" s="9"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="54"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="56"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="55"/>
-      <c r="G152" s="55"/>
-      <c r="H152" s="57"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="58"/>
+      <c r="A152" s="55"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56"/>
+      <c r="H152" s="58"/>
+      <c r="I152" s="59"/>
+      <c r="J152" s="59"/>
+      <c r="K152" s="59"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
@@ -5539,17 +5554,17 @@
       <c r="AB152" s="9"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="54"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="56"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="55"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="57"/>
-      <c r="I153" s="58"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="58"/>
+      <c r="A153" s="55"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="58"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="59"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
@@ -5569,17 +5584,17 @@
       <c r="AB153" s="9"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="54"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="56"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="57"/>
-      <c r="I154" s="58"/>
-      <c r="J154" s="58"/>
-      <c r="K154" s="58"/>
+      <c r="A154" s="55"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56"/>
+      <c r="H154" s="58"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="59"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
@@ -5599,17 +5614,17 @@
       <c r="AB154" s="9"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="54"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="56"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="55"/>
-      <c r="G155" s="55"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="58"/>
-      <c r="J155" s="58"/>
-      <c r="K155" s="58"/>
+      <c r="A155" s="55"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56"/>
+      <c r="H155" s="58"/>
+      <c r="I155" s="59"/>
+      <c r="J155" s="59"/>
+      <c r="K155" s="59"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
@@ -5629,17 +5644,17 @@
       <c r="AB155" s="9"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="54"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="56"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="55"/>
-      <c r="F156" s="55"/>
-      <c r="G156" s="55"/>
-      <c r="H156" s="57"/>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="58"/>
+      <c r="A156" s="55"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="56"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56"/>
+      <c r="H156" s="58"/>
+      <c r="I156" s="59"/>
+      <c r="J156" s="59"/>
+      <c r="K156" s="59"/>
       <c r="L156" s="9"/>
       <c r="M156" s="9"/>
       <c r="N156" s="9"/>
@@ -5659,17 +5674,17 @@
       <c r="AB156" s="9"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="54"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="56"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="55"/>
-      <c r="F157" s="55"/>
-      <c r="G157" s="55"/>
-      <c r="H157" s="57"/>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="58"/>
+      <c r="A157" s="55"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="56"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
+      <c r="H157" s="58"/>
+      <c r="I157" s="59"/>
+      <c r="J157" s="59"/>
+      <c r="K157" s="59"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
@@ -5689,17 +5704,17 @@
       <c r="AB157" s="9"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="54"/>
-      <c r="B158" s="55"/>
-      <c r="C158" s="56"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="55"/>
-      <c r="F158" s="55"/>
-      <c r="G158" s="55"/>
-      <c r="H158" s="57"/>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="58"/>
+      <c r="A158" s="55"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56"/>
+      <c r="G158" s="56"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="59"/>
+      <c r="J158" s="59"/>
+      <c r="K158" s="59"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
@@ -5719,17 +5734,17 @@
       <c r="AB158" s="9"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="54"/>
-      <c r="B159" s="55"/>
-      <c r="C159" s="56"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="55"/>
-      <c r="G159" s="55"/>
-      <c r="H159" s="57"/>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="58"/>
+      <c r="A159" s="55"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="59"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
@@ -5749,17 +5764,17 @@
       <c r="AB159" s="9"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="54"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="56"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="55"/>
-      <c r="F160" s="55"/>
-      <c r="G160" s="55"/>
-      <c r="H160" s="57"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="58"/>
+      <c r="A160" s="55"/>
+      <c r="B160" s="56"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="56"/>
+      <c r="F160" s="56"/>
+      <c r="G160" s="56"/>
+      <c r="H160" s="58"/>
+      <c r="I160" s="59"/>
+      <c r="J160" s="59"/>
+      <c r="K160" s="59"/>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
@@ -5779,17 +5794,17 @@
       <c r="AB160" s="9"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="54"/>
-      <c r="B161" s="55"/>
-      <c r="C161" s="56"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="55"/>
-      <c r="G161" s="55"/>
-      <c r="H161" s="57"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="58"/>
+      <c r="A161" s="55"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="59"/>
+      <c r="J161" s="59"/>
+      <c r="K161" s="59"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
@@ -5809,17 +5824,17 @@
       <c r="AB161" s="9"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="54"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="56"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="55"/>
-      <c r="F162" s="55"/>
-      <c r="G162" s="55"/>
-      <c r="H162" s="57"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="58"/>
+      <c r="A162" s="55"/>
+      <c r="B162" s="56"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="59"/>
+      <c r="J162" s="59"/>
+      <c r="K162" s="59"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
@@ -5839,17 +5854,17 @@
       <c r="AB162" s="9"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="54"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="56"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="55"/>
-      <c r="G163" s="55"/>
-      <c r="H163" s="57"/>
-      <c r="I163" s="58"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="58"/>
+      <c r="A163" s="55"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="56"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="56"/>
+      <c r="G163" s="56"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="59"/>
+      <c r="J163" s="59"/>
+      <c r="K163" s="59"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
@@ -5869,17 +5884,17 @@
       <c r="AB163" s="9"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="54"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="56"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="55"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="55"/>
-      <c r="H164" s="57"/>
-      <c r="I164" s="58"/>
-      <c r="J164" s="58"/>
-      <c r="K164" s="58"/>
+      <c r="A164" s="55"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="56"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="56"/>
+      <c r="H164" s="58"/>
+      <c r="I164" s="59"/>
+      <c r="J164" s="59"/>
+      <c r="K164" s="59"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
       <c r="N164" s="9"/>
@@ -5899,17 +5914,17 @@
       <c r="AB164" s="9"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="54"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="56"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="55"/>
-      <c r="H165" s="57"/>
-      <c r="I165" s="58"/>
-      <c r="J165" s="58"/>
-      <c r="K165" s="58"/>
+      <c r="A165" s="55"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="57"/>
+      <c r="D165" s="56"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="56"/>
+      <c r="G165" s="56"/>
+      <c r="H165" s="58"/>
+      <c r="I165" s="59"/>
+      <c r="J165" s="59"/>
+      <c r="K165" s="59"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
@@ -5929,17 +5944,17 @@
       <c r="AB165" s="9"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="54"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="56"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="55"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="57"/>
-      <c r="I166" s="58"/>
-      <c r="J166" s="58"/>
-      <c r="K166" s="58"/>
+      <c r="A166" s="55"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="56"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="58"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="59"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
@@ -5959,17 +5974,17 @@
       <c r="AB166" s="9"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="54"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="56"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="55"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="57"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="58"/>
+      <c r="A167" s="55"/>
+      <c r="B167" s="56"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="56"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="56"/>
+      <c r="G167" s="56"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="59"/>
+      <c r="J167" s="59"/>
+      <c r="K167" s="59"/>
       <c r="L167" s="9"/>
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
@@ -5989,17 +6004,17 @@
       <c r="AB167" s="9"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="54"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="56"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="55"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="57"/>
-      <c r="I168" s="58"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="58"/>
+      <c r="A168" s="55"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="56"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="56"/>
+      <c r="G168" s="56"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="59"/>
+      <c r="J168" s="59"/>
+      <c r="K168" s="59"/>
       <c r="L168" s="9"/>
       <c r="M168" s="9"/>
       <c r="N168" s="9"/>
@@ -6019,17 +6034,17 @@
       <c r="AB168" s="9"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="54"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="56"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="57"/>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="58"/>
+      <c r="A169" s="55"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="56"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="56"/>
+      <c r="G169" s="56"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="59"/>
+      <c r="J169" s="59"/>
+      <c r="K169" s="59"/>
       <c r="L169" s="9"/>
       <c r="M169" s="9"/>
       <c r="N169" s="9"/>
@@ -6049,17 +6064,17 @@
       <c r="AB169" s="9"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="54"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="56"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="55"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="57"/>
-      <c r="I170" s="58"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="58"/>
+      <c r="A170" s="55"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="56"/>
+      <c r="E170" s="56"/>
+      <c r="F170" s="56"/>
+      <c r="G170" s="56"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="59"/>
+      <c r="J170" s="59"/>
+      <c r="K170" s="59"/>
       <c r="L170" s="9"/>
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
@@ -6079,17 +6094,17 @@
       <c r="AB170" s="9"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="54"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="56"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="55"/>
-      <c r="F171" s="55"/>
-      <c r="G171" s="55"/>
-      <c r="H171" s="57"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="58"/>
+      <c r="A171" s="55"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="56"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="56"/>
+      <c r="G171" s="56"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
       <c r="L171" s="9"/>
       <c r="M171" s="9"/>
       <c r="N171" s="9"/>
@@ -6109,17 +6124,17 @@
       <c r="AB171" s="9"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="54"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="56"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="55"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="57"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="58"/>
+      <c r="A172" s="55"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="56"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="56"/>
+      <c r="G172" s="56"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="59"/>
+      <c r="J172" s="59"/>
+      <c r="K172" s="59"/>
       <c r="L172" s="9"/>
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
@@ -6139,17 +6154,17 @@
       <c r="AB172" s="9"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="54"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="56"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="57"/>
-      <c r="I173" s="58"/>
-      <c r="J173" s="58"/>
-      <c r="K173" s="58"/>
+      <c r="A173" s="55"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="56"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="59"/>
+      <c r="J173" s="59"/>
+      <c r="K173" s="59"/>
       <c r="L173" s="9"/>
       <c r="M173" s="9"/>
       <c r="N173" s="9"/>
@@ -6169,17 +6184,17 @@
       <c r="AB173" s="9"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="54"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="56"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="55"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="57"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="58"/>
+      <c r="A174" s="55"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="56"/>
+      <c r="G174" s="56"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="59"/>
+      <c r="J174" s="59"/>
+      <c r="K174" s="59"/>
       <c r="L174" s="9"/>
       <c r="M174" s="9"/>
       <c r="N174" s="9"/>
@@ -6199,17 +6214,17 @@
       <c r="AB174" s="9"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="54"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="56"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="57"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="58"/>
-      <c r="K175" s="58"/>
+      <c r="A175" s="55"/>
+      <c r="B175" s="56"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="56"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="56"/>
+      <c r="G175" s="56"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="59"/>
+      <c r="K175" s="59"/>
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
@@ -6229,17 +6244,17 @@
       <c r="AB175" s="9"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="54"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="56"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="57"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="58"/>
+      <c r="A176" s="55"/>
+      <c r="B176" s="56"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="56"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="56"/>
+      <c r="G176" s="56"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="59"/>
+      <c r="K176" s="59"/>
       <c r="L176" s="9"/>
       <c r="M176" s="9"/>
       <c r="N176" s="9"/>
@@ -6259,17 +6274,17 @@
       <c r="AB176" s="9"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="54"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="56"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="55"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="57"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="58"/>
+      <c r="A177" s="55"/>
+      <c r="B177" s="56"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="56"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="56"/>
+      <c r="G177" s="56"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="59"/>
+      <c r="J177" s="59"/>
+      <c r="K177" s="59"/>
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
@@ -6289,17 +6304,17 @@
       <c r="AB177" s="9"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="54"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="56"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="55"/>
-      <c r="F178" s="55"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="57"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="58"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="56"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="56"/>
+      <c r="G178" s="56"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="59"/>
+      <c r="J178" s="59"/>
+      <c r="K178" s="59"/>
       <c r="L178" s="9"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
@@ -6319,17 +6334,17 @@
       <c r="AB178" s="9"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="54"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="56"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="57"/>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="58"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="56"/>
+      <c r="G179" s="56"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="59"/>
+      <c r="J179" s="59"/>
+      <c r="K179" s="59"/>
       <c r="L179" s="9"/>
       <c r="M179" s="9"/>
       <c r="N179" s="9"/>
@@ -6349,17 +6364,17 @@
       <c r="AB179" s="9"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="54"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="56"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="57"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="58"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="56"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="56"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="56"/>
+      <c r="G180" s="56"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="59"/>
       <c r="L180" s="9"/>
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
@@ -6379,17 +6394,17 @@
       <c r="AB180" s="9"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="54"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="56"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="57"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="58"/>
+      <c r="A181" s="55"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="56"/>
+      <c r="E181" s="56"/>
+      <c r="F181" s="56"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="59"/>
+      <c r="J181" s="59"/>
+      <c r="K181" s="59"/>
       <c r="L181" s="9"/>
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
@@ -6409,17 +6424,17 @@
       <c r="AB181" s="9"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="54"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="58"/>
-      <c r="J182" s="58"/>
-      <c r="K182" s="58"/>
+      <c r="A182" s="55"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="56"/>
+      <c r="G182" s="56"/>
+      <c r="H182" s="58"/>
+      <c r="I182" s="59"/>
+      <c r="J182" s="59"/>
+      <c r="K182" s="59"/>
       <c r="L182" s="9"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
@@ -6439,17 +6454,17 @@
       <c r="AB182" s="9"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="54"/>
-      <c r="B183" s="55"/>
-      <c r="C183" s="56"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="57"/>
-      <c r="I183" s="58"/>
-      <c r="J183" s="58"/>
-      <c r="K183" s="58"/>
+      <c r="A183" s="55"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="56"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
+      <c r="G183" s="56"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="59"/>
       <c r="L183" s="9"/>
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
@@ -6469,17 +6484,17 @@
       <c r="AB183" s="9"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="54"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="56"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="57"/>
-      <c r="I184" s="58"/>
-      <c r="J184" s="58"/>
-      <c r="K184" s="58"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56"/>
+      <c r="H184" s="58"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
       <c r="L184" s="9"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
@@ -6499,17 +6514,17 @@
       <c r="AB184" s="9"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="54"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="56"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="57"/>
-      <c r="I185" s="58"/>
-      <c r="J185" s="58"/>
-      <c r="K185" s="58"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="57"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="56"/>
+      <c r="H185" s="58"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="59"/>
       <c r="L185" s="9"/>
       <c r="M185" s="9"/>
       <c r="N185" s="9"/>
@@ -6529,17 +6544,17 @@
       <c r="AB185" s="9"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="54"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="56"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="55"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="57"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="58"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="56"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="56"/>
+      <c r="E186" s="56"/>
+      <c r="F186" s="56"/>
+      <c r="G186" s="56"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="59"/>
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
@@ -6559,17 +6574,17 @@
       <c r="AB186" s="9"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="54"/>
-      <c r="B187" s="55"/>
-      <c r="C187" s="56"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="57"/>
-      <c r="I187" s="58"/>
-      <c r="J187" s="58"/>
-      <c r="K187" s="58"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="56"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="56"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="56"/>
+      <c r="G187" s="56"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="59"/>
       <c r="L187" s="9"/>
       <c r="M187" s="9"/>
       <c r="N187" s="9"/>
@@ -6589,17 +6604,17 @@
       <c r="AB187" s="9"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="54"/>
-      <c r="B188" s="55"/>
-      <c r="C188" s="56"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="55"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="57"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="58"/>
+      <c r="A188" s="55"/>
+      <c r="B188" s="56"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="56"/>
+      <c r="E188" s="56"/>
+      <c r="F188" s="56"/>
+      <c r="G188" s="56"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="59"/>
+      <c r="J188" s="59"/>
+      <c r="K188" s="59"/>
       <c r="L188" s="9"/>
       <c r="M188" s="9"/>
       <c r="N188" s="9"/>
@@ -6619,17 +6634,17 @@
       <c r="AB188" s="9"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="54"/>
-      <c r="B189" s="55"/>
-      <c r="C189" s="56"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="55"/>
-      <c r="H189" s="57"/>
-      <c r="I189" s="58"/>
-      <c r="J189" s="58"/>
-      <c r="K189" s="58"/>
+      <c r="A189" s="55"/>
+      <c r="B189" s="56"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="56"/>
+      <c r="E189" s="56"/>
+      <c r="F189" s="56"/>
+      <c r="G189" s="56"/>
+      <c r="H189" s="58"/>
+      <c r="I189" s="59"/>
+      <c r="J189" s="59"/>
+      <c r="K189" s="59"/>
       <c r="L189" s="9"/>
       <c r="M189" s="9"/>
       <c r="N189" s="9"/>
@@ -6649,17 +6664,17 @@
       <c r="AB189" s="9"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="54"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="56"/>
-      <c r="D190" s="55"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="55"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="57"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="58"/>
+      <c r="A190" s="55"/>
+      <c r="B190" s="56"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="56"/>
+      <c r="E190" s="56"/>
+      <c r="F190" s="56"/>
+      <c r="G190" s="56"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="59"/>
+      <c r="J190" s="59"/>
+      <c r="K190" s="59"/>
       <c r="L190" s="9"/>
       <c r="M190" s="9"/>
       <c r="N190" s="9"/>
@@ -6679,17 +6694,17 @@
       <c r="AB190" s="9"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="54"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="56"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="55"/>
-      <c r="F191" s="55"/>
-      <c r="G191" s="55"/>
-      <c r="H191" s="57"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="58"/>
+      <c r="A191" s="55"/>
+      <c r="B191" s="56"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="56"/>
+      <c r="E191" s="56"/>
+      <c r="F191" s="56"/>
+      <c r="G191" s="56"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="59"/>
+      <c r="J191" s="59"/>
+      <c r="K191" s="59"/>
       <c r="L191" s="9"/>
       <c r="M191" s="9"/>
       <c r="N191" s="9"/>
@@ -6709,17 +6724,17 @@
       <c r="AB191" s="9"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="A192" s="54"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="56"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="55"/>
-      <c r="F192" s="55"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="57"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="58"/>
+      <c r="A192" s="55"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="56"/>
+      <c r="E192" s="56"/>
+      <c r="F192" s="56"/>
+      <c r="G192" s="56"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="59"/>
+      <c r="J192" s="59"/>
+      <c r="K192" s="59"/>
       <c r="L192" s="9"/>
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
@@ -6739,17 +6754,17 @@
       <c r="AB192" s="9"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="54"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="56"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="55"/>
-      <c r="F193" s="55"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="57"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="58"/>
+      <c r="A193" s="55"/>
+      <c r="B193" s="56"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="56"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="56"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="59"/>
+      <c r="J193" s="59"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="9"/>
       <c r="M193" s="9"/>
       <c r="N193" s="9"/>
@@ -6769,17 +6784,17 @@
       <c r="AB193" s="9"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="54"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="56"/>
-      <c r="D194" s="55"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="57"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="58"/>
+      <c r="A194" s="55"/>
+      <c r="B194" s="56"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="59"/>
+      <c r="J194" s="59"/>
+      <c r="K194" s="59"/>
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
       <c r="N194" s="9"/>
@@ -6799,17 +6814,17 @@
       <c r="AB194" s="9"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="54"/>
-      <c r="B195" s="55"/>
-      <c r="C195" s="56"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="55"/>
-      <c r="F195" s="55"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="57"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="58"/>
+      <c r="A195" s="55"/>
+      <c r="B195" s="56"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="56"/>
+      <c r="E195" s="56"/>
+      <c r="F195" s="56"/>
+      <c r="G195" s="56"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="59"/>
+      <c r="J195" s="59"/>
+      <c r="K195" s="59"/>
       <c r="L195" s="9"/>
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
@@ -6829,17 +6844,17 @@
       <c r="AB195" s="9"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="54"/>
-      <c r="B196" s="55"/>
-      <c r="C196" s="56"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="55"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="57"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="58"/>
+      <c r="A196" s="55"/>
+      <c r="B196" s="56"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="56"/>
+      <c r="E196" s="56"/>
+      <c r="F196" s="56"/>
+      <c r="G196" s="56"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="59"/>
+      <c r="J196" s="59"/>
+      <c r="K196" s="59"/>
       <c r="L196" s="9"/>
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
@@ -6859,17 +6874,17 @@
       <c r="AB196" s="9"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="54"/>
-      <c r="B197" s="55"/>
-      <c r="C197" s="56"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="57"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="58"/>
+      <c r="A197" s="55"/>
+      <c r="B197" s="56"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="56"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="59"/>
+      <c r="K197" s="59"/>
       <c r="L197" s="9"/>
       <c r="M197" s="9"/>
       <c r="N197" s="9"/>
@@ -6889,17 +6904,17 @@
       <c r="AB197" s="9"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="54"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="56"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="57"/>
-      <c r="I198" s="58"/>
-      <c r="J198" s="58"/>
-      <c r="K198" s="58"/>
+      <c r="A198" s="55"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="56"/>
+      <c r="E198" s="56"/>
+      <c r="F198" s="56"/>
+      <c r="G198" s="56"/>
+      <c r="H198" s="58"/>
+      <c r="I198" s="59"/>
+      <c r="J198" s="59"/>
+      <c r="K198" s="59"/>
       <c r="L198" s="9"/>
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
@@ -6919,17 +6934,17 @@
       <c r="AB198" s="9"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="A199" s="54"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="56"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="57"/>
-      <c r="I199" s="58"/>
-      <c r="J199" s="58"/>
-      <c r="K199" s="58"/>
+      <c r="A199" s="55"/>
+      <c r="B199" s="56"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="56"/>
+      <c r="E199" s="56"/>
+      <c r="F199" s="56"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="58"/>
+      <c r="I199" s="59"/>
+      <c r="J199" s="59"/>
+      <c r="K199" s="59"/>
       <c r="L199" s="9"/>
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
@@ -6949,17 +6964,17 @@
       <c r="AB199" s="9"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="54"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="56"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="57"/>
-      <c r="I200" s="58"/>
-      <c r="J200" s="58"/>
-      <c r="K200" s="58"/>
+      <c r="A200" s="55"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="58"/>
+      <c r="I200" s="59"/>
+      <c r="J200" s="59"/>
+      <c r="K200" s="59"/>
       <c r="L200" s="9"/>
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
@@ -6979,17 +6994,17 @@
       <c r="AB200" s="9"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="54"/>
-      <c r="B201" s="55"/>
-      <c r="C201" s="56"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="57"/>
-      <c r="I201" s="58"/>
-      <c r="J201" s="58"/>
-      <c r="K201" s="58"/>
+      <c r="A201" s="55"/>
+      <c r="B201" s="56"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="56"/>
+      <c r="E201" s="56"/>
+      <c r="F201" s="56"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="58"/>
+      <c r="I201" s="59"/>
+      <c r="J201" s="59"/>
+      <c r="K201" s="59"/>
       <c r="L201" s="9"/>
       <c r="M201" s="9"/>
       <c r="N201" s="9"/>
@@ -7009,17 +7024,17 @@
       <c r="AB201" s="9"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="54"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="56"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="55"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="57"/>
-      <c r="I202" s="58"/>
-      <c r="J202" s="58"/>
-      <c r="K202" s="58"/>
+      <c r="A202" s="55"/>
+      <c r="B202" s="56"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="56"/>
+      <c r="E202" s="56"/>
+      <c r="F202" s="56"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="58"/>
+      <c r="I202" s="59"/>
+      <c r="J202" s="59"/>
+      <c r="K202" s="59"/>
       <c r="L202" s="9"/>
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
@@ -7039,17 +7054,17 @@
       <c r="AB202" s="9"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="54"/>
-      <c r="B203" s="55"/>
-      <c r="C203" s="56"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="55"/>
-      <c r="G203" s="55"/>
-      <c r="H203" s="57"/>
-      <c r="I203" s="58"/>
-      <c r="J203" s="58"/>
-      <c r="K203" s="58"/>
+      <c r="A203" s="55"/>
+      <c r="B203" s="56"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="56"/>
+      <c r="E203" s="56"/>
+      <c r="F203" s="56"/>
+      <c r="G203" s="56"/>
+      <c r="H203" s="58"/>
+      <c r="I203" s="59"/>
+      <c r="J203" s="59"/>
+      <c r="K203" s="59"/>
       <c r="L203" s="9"/>
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
@@ -7069,17 +7084,17 @@
       <c r="AB203" s="9"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="54"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="56"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="55"/>
-      <c r="F204" s="55"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="57"/>
-      <c r="I204" s="58"/>
-      <c r="J204" s="58"/>
-      <c r="K204" s="58"/>
+      <c r="A204" s="55"/>
+      <c r="B204" s="56"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="56"/>
+      <c r="E204" s="56"/>
+      <c r="F204" s="56"/>
+      <c r="G204" s="56"/>
+      <c r="H204" s="58"/>
+      <c r="I204" s="59"/>
+      <c r="J204" s="59"/>
+      <c r="K204" s="59"/>
       <c r="L204" s="9"/>
       <c r="M204" s="9"/>
       <c r="N204" s="9"/>
@@ -7099,17 +7114,17 @@
       <c r="AB204" s="9"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="54"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="56"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="55"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="57"/>
-      <c r="I205" s="58"/>
-      <c r="J205" s="58"/>
-      <c r="K205" s="58"/>
+      <c r="A205" s="55"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="56"/>
+      <c r="E205" s="56"/>
+      <c r="F205" s="56"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="58"/>
+      <c r="I205" s="59"/>
+      <c r="J205" s="59"/>
+      <c r="K205" s="59"/>
       <c r="L205" s="9"/>
       <c r="M205" s="9"/>
       <c r="N205" s="9"/>
@@ -7129,17 +7144,17 @@
       <c r="AB205" s="9"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="A206" s="54"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="56"/>
-      <c r="D206" s="55"/>
-      <c r="E206" s="55"/>
-      <c r="F206" s="55"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="57"/>
-      <c r="I206" s="58"/>
-      <c r="J206" s="58"/>
-      <c r="K206" s="58"/>
+      <c r="A206" s="55"/>
+      <c r="B206" s="56"/>
+      <c r="C206" s="57"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="58"/>
+      <c r="I206" s="59"/>
+      <c r="J206" s="59"/>
+      <c r="K206" s="59"/>
       <c r="L206" s="9"/>
       <c r="M206" s="9"/>
       <c r="N206" s="9"/>
@@ -7159,17 +7174,17 @@
       <c r="AB206" s="9"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="A207" s="54"/>
-      <c r="B207" s="55"/>
-      <c r="C207" s="56"/>
-      <c r="D207" s="55"/>
-      <c r="E207" s="55"/>
-      <c r="F207" s="55"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="57"/>
-      <c r="I207" s="58"/>
-      <c r="J207" s="58"/>
-      <c r="K207" s="58"/>
+      <c r="A207" s="55"/>
+      <c r="B207" s="56"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="56"/>
+      <c r="E207" s="56"/>
+      <c r="F207" s="56"/>
+      <c r="G207" s="56"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="59"/>
+      <c r="J207" s="59"/>
+      <c r="K207" s="59"/>
       <c r="L207" s="9"/>
       <c r="M207" s="9"/>
       <c r="N207" s="9"/>
@@ -7189,17 +7204,17 @@
       <c r="AB207" s="9"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="A208" s="54"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="56"/>
-      <c r="D208" s="55"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="57"/>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="58"/>
+      <c r="A208" s="55"/>
+      <c r="B208" s="56"/>
+      <c r="C208" s="57"/>
+      <c r="D208" s="56"/>
+      <c r="E208" s="56"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="59"/>
+      <c r="J208" s="59"/>
+      <c r="K208" s="59"/>
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
       <c r="N208" s="9"/>
@@ -7219,17 +7234,17 @@
       <c r="AB208" s="9"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="A209" s="54"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="56"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="58"/>
-      <c r="J209" s="58"/>
-      <c r="K209" s="58"/>
+      <c r="A209" s="55"/>
+      <c r="B209" s="56"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="56"/>
+      <c r="E209" s="56"/>
+      <c r="F209" s="56"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="58"/>
+      <c r="I209" s="59"/>
+      <c r="J209" s="59"/>
+      <c r="K209" s="59"/>
       <c r="L209" s="9"/>
       <c r="M209" s="9"/>
       <c r="N209" s="9"/>
@@ -7249,17 +7264,17 @@
       <c r="AB209" s="9"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="54"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="56"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="57"/>
-      <c r="I210" s="58"/>
-      <c r="J210" s="58"/>
-      <c r="K210" s="58"/>
+      <c r="A210" s="55"/>
+      <c r="B210" s="56"/>
+      <c r="C210" s="57"/>
+      <c r="D210" s="56"/>
+      <c r="E210" s="56"/>
+      <c r="F210" s="56"/>
+      <c r="G210" s="56"/>
+      <c r="H210" s="58"/>
+      <c r="I210" s="59"/>
+      <c r="J210" s="59"/>
+      <c r="K210" s="59"/>
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
       <c r="N210" s="9"/>
@@ -7279,17 +7294,17 @@
       <c r="AB210" s="9"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="A211" s="54"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="55"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="55"/>
-      <c r="G211" s="55"/>
-      <c r="H211" s="57"/>
-      <c r="I211" s="58"/>
-      <c r="J211" s="58"/>
-      <c r="K211" s="58"/>
+      <c r="A211" s="55"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="56"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="58"/>
+      <c r="I211" s="59"/>
+      <c r="J211" s="59"/>
+      <c r="K211" s="59"/>
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
       <c r="N211" s="9"/>
@@ -7309,17 +7324,17 @@
       <c r="AB211" s="9"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="54"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="56"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="55"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="57"/>
-      <c r="I212" s="58"/>
-      <c r="J212" s="58"/>
-      <c r="K212" s="58"/>
+      <c r="A212" s="55"/>
+      <c r="B212" s="56"/>
+      <c r="C212" s="57"/>
+      <c r="D212" s="56"/>
+      <c r="E212" s="56"/>
+      <c r="F212" s="56"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="58"/>
+      <c r="I212" s="59"/>
+      <c r="J212" s="59"/>
+      <c r="K212" s="59"/>
       <c r="L212" s="9"/>
       <c r="M212" s="9"/>
       <c r="N212" s="9"/>
@@ -7339,17 +7354,17 @@
       <c r="AB212" s="9"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="A213" s="54"/>
-      <c r="B213" s="55"/>
-      <c r="C213" s="56"/>
-      <c r="D213" s="55"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="55"/>
-      <c r="G213" s="55"/>
-      <c r="H213" s="57"/>
-      <c r="I213" s="58"/>
-      <c r="J213" s="58"/>
-      <c r="K213" s="58"/>
+      <c r="A213" s="55"/>
+      <c r="B213" s="56"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="56"/>
+      <c r="E213" s="56"/>
+      <c r="F213" s="56"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="58"/>
+      <c r="I213" s="59"/>
+      <c r="J213" s="59"/>
+      <c r="K213" s="59"/>
       <c r="L213" s="9"/>
       <c r="M213" s="9"/>
       <c r="N213" s="9"/>
@@ -7369,17 +7384,17 @@
       <c r="AB213" s="9"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="A214" s="54"/>
-      <c r="B214" s="55"/>
-      <c r="C214" s="56"/>
-      <c r="D214" s="55"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="57"/>
-      <c r="I214" s="58"/>
-      <c r="J214" s="58"/>
-      <c r="K214" s="58"/>
+      <c r="A214" s="55"/>
+      <c r="B214" s="56"/>
+      <c r="C214" s="57"/>
+      <c r="D214" s="56"/>
+      <c r="E214" s="56"/>
+      <c r="F214" s="56"/>
+      <c r="G214" s="56"/>
+      <c r="H214" s="58"/>
+      <c r="I214" s="59"/>
+      <c r="J214" s="59"/>
+      <c r="K214" s="59"/>
       <c r="L214" s="9"/>
       <c r="M214" s="9"/>
       <c r="N214" s="9"/>
@@ -7399,17 +7414,17 @@
       <c r="AB214" s="9"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="A215" s="54"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="56"/>
-      <c r="D215" s="55"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="55"/>
-      <c r="G215" s="55"/>
-      <c r="H215" s="57"/>
-      <c r="I215" s="58"/>
-      <c r="J215" s="58"/>
-      <c r="K215" s="58"/>
+      <c r="A215" s="55"/>
+      <c r="B215" s="56"/>
+      <c r="C215" s="57"/>
+      <c r="D215" s="56"/>
+      <c r="E215" s="56"/>
+      <c r="F215" s="56"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="58"/>
+      <c r="I215" s="59"/>
+      <c r="J215" s="59"/>
+      <c r="K215" s="59"/>
       <c r="L215" s="9"/>
       <c r="M215" s="9"/>
       <c r="N215" s="9"/>
@@ -7429,17 +7444,17 @@
       <c r="AB215" s="9"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="A216" s="54"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="56"/>
-      <c r="D216" s="55"/>
-      <c r="E216" s="55"/>
-      <c r="F216" s="55"/>
-      <c r="G216" s="55"/>
-      <c r="H216" s="57"/>
-      <c r="I216" s="58"/>
-      <c r="J216" s="58"/>
-      <c r="K216" s="58"/>
+      <c r="A216" s="55"/>
+      <c r="B216" s="56"/>
+      <c r="C216" s="57"/>
+      <c r="D216" s="56"/>
+      <c r="E216" s="56"/>
+      <c r="F216" s="56"/>
+      <c r="G216" s="56"/>
+      <c r="H216" s="58"/>
+      <c r="I216" s="59"/>
+      <c r="J216" s="59"/>
+      <c r="K216" s="59"/>
       <c r="L216" s="9"/>
       <c r="M216" s="9"/>
       <c r="N216" s="9"/>
@@ -7459,17 +7474,17 @@
       <c r="AB216" s="9"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="A217" s="54"/>
-      <c r="B217" s="55"/>
-      <c r="C217" s="56"/>
-      <c r="D217" s="55"/>
-      <c r="E217" s="55"/>
-      <c r="F217" s="55"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="57"/>
-      <c r="I217" s="58"/>
-      <c r="J217" s="58"/>
-      <c r="K217" s="58"/>
+      <c r="A217" s="55"/>
+      <c r="B217" s="56"/>
+      <c r="C217" s="57"/>
+      <c r="D217" s="56"/>
+      <c r="E217" s="56"/>
+      <c r="F217" s="56"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="58"/>
+      <c r="I217" s="59"/>
+      <c r="J217" s="59"/>
+      <c r="K217" s="59"/>
       <c r="L217" s="9"/>
       <c r="M217" s="9"/>
       <c r="N217" s="9"/>
@@ -7489,17 +7504,17 @@
       <c r="AB217" s="9"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="A218" s="54"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="56"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="55"/>
-      <c r="F218" s="55"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="57"/>
-      <c r="I218" s="58"/>
-      <c r="J218" s="58"/>
-      <c r="K218" s="58"/>
+      <c r="A218" s="55"/>
+      <c r="B218" s="56"/>
+      <c r="C218" s="57"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="59"/>
+      <c r="J218" s="59"/>
+      <c r="K218" s="59"/>
       <c r="L218" s="9"/>
       <c r="M218" s="9"/>
       <c r="N218" s="9"/>
@@ -7519,17 +7534,17 @@
       <c r="AB218" s="9"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="A219" s="54"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="56"/>
-      <c r="D219" s="55"/>
-      <c r="E219" s="55"/>
-      <c r="F219" s="55"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="57"/>
-      <c r="I219" s="58"/>
-      <c r="J219" s="58"/>
-      <c r="K219" s="58"/>
+      <c r="A219" s="55"/>
+      <c r="B219" s="56"/>
+      <c r="C219" s="57"/>
+      <c r="D219" s="56"/>
+      <c r="E219" s="56"/>
+      <c r="F219" s="56"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="59"/>
+      <c r="J219" s="59"/>
+      <c r="K219" s="59"/>
       <c r="L219" s="9"/>
       <c r="M219" s="9"/>
       <c r="N219" s="9"/>
@@ -7549,17 +7564,17 @@
       <c r="AB219" s="9"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="A220" s="54"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="56"/>
-      <c r="D220" s="55"/>
-      <c r="E220" s="55"/>
-      <c r="F220" s="55"/>
-      <c r="G220" s="55"/>
-      <c r="H220" s="57"/>
-      <c r="I220" s="58"/>
-      <c r="J220" s="58"/>
-      <c r="K220" s="58"/>
+      <c r="A220" s="55"/>
+      <c r="B220" s="56"/>
+      <c r="C220" s="57"/>
+      <c r="D220" s="56"/>
+      <c r="E220" s="56"/>
+      <c r="F220" s="56"/>
+      <c r="G220" s="56"/>
+      <c r="H220" s="58"/>
+      <c r="I220" s="59"/>
+      <c r="J220" s="59"/>
+      <c r="K220" s="59"/>
       <c r="L220" s="9"/>
       <c r="M220" s="9"/>
       <c r="N220" s="9"/>
@@ -7579,17 +7594,17 @@
       <c r="AB220" s="9"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="A221" s="54"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="56"/>
-      <c r="D221" s="55"/>
-      <c r="E221" s="55"/>
-      <c r="F221" s="55"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="57"/>
-      <c r="I221" s="58"/>
-      <c r="J221" s="58"/>
-      <c r="K221" s="58"/>
+      <c r="A221" s="55"/>
+      <c r="B221" s="56"/>
+      <c r="C221" s="57"/>
+      <c r="D221" s="56"/>
+      <c r="E221" s="56"/>
+      <c r="F221" s="56"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="58"/>
+      <c r="I221" s="59"/>
+      <c r="J221" s="59"/>
+      <c r="K221" s="59"/>
       <c r="L221" s="9"/>
       <c r="M221" s="9"/>
       <c r="N221" s="9"/>
@@ -7609,17 +7624,17 @@
       <c r="AB221" s="9"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="A222" s="54"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="56"/>
-      <c r="D222" s="55"/>
-      <c r="E222" s="55"/>
-      <c r="F222" s="55"/>
-      <c r="G222" s="55"/>
-      <c r="H222" s="57"/>
-      <c r="I222" s="58"/>
-      <c r="J222" s="58"/>
-      <c r="K222" s="58"/>
+      <c r="A222" s="55"/>
+      <c r="B222" s="56"/>
+      <c r="C222" s="57"/>
+      <c r="D222" s="56"/>
+      <c r="E222" s="56"/>
+      <c r="F222" s="56"/>
+      <c r="G222" s="56"/>
+      <c r="H222" s="58"/>
+      <c r="I222" s="59"/>
+      <c r="J222" s="59"/>
+      <c r="K222" s="59"/>
       <c r="L222" s="9"/>
       <c r="M222" s="9"/>
       <c r="N222" s="9"/>
@@ -7639,17 +7654,17 @@
       <c r="AB222" s="9"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="A223" s="54"/>
-      <c r="B223" s="55"/>
-      <c r="C223" s="56"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="57"/>
-      <c r="I223" s="58"/>
-      <c r="J223" s="58"/>
-      <c r="K223" s="58"/>
+      <c r="A223" s="55"/>
+      <c r="B223" s="56"/>
+      <c r="C223" s="57"/>
+      <c r="D223" s="56"/>
+      <c r="E223" s="56"/>
+      <c r="F223" s="56"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="58"/>
+      <c r="I223" s="59"/>
+      <c r="J223" s="59"/>
+      <c r="K223" s="59"/>
       <c r="L223" s="9"/>
       <c r="M223" s="9"/>
       <c r="N223" s="9"/>
@@ -7669,17 +7684,17 @@
       <c r="AB223" s="9"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="A224" s="54"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="56"/>
-      <c r="D224" s="55"/>
-      <c r="E224" s="55"/>
-      <c r="F224" s="55"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="57"/>
-      <c r="I224" s="58"/>
-      <c r="J224" s="58"/>
-      <c r="K224" s="58"/>
+      <c r="A224" s="55"/>
+      <c r="B224" s="56"/>
+      <c r="C224" s="57"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
+      <c r="G224" s="56"/>
+      <c r="H224" s="58"/>
+      <c r="I224" s="59"/>
+      <c r="J224" s="59"/>
+      <c r="K224" s="59"/>
       <c r="L224" s="9"/>
       <c r="M224" s="9"/>
       <c r="N224" s="9"/>
@@ -7699,17 +7714,17 @@
       <c r="AB224" s="9"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="A225" s="54"/>
-      <c r="B225" s="55"/>
-      <c r="C225" s="56"/>
-      <c r="D225" s="55"/>
-      <c r="E225" s="55"/>
-      <c r="F225" s="55"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="57"/>
-      <c r="I225" s="58"/>
-      <c r="J225" s="58"/>
-      <c r="K225" s="58"/>
+      <c r="A225" s="55"/>
+      <c r="B225" s="56"/>
+      <c r="C225" s="57"/>
+      <c r="D225" s="56"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="56"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="58"/>
+      <c r="I225" s="59"/>
+      <c r="J225" s="59"/>
+      <c r="K225" s="59"/>
       <c r="L225" s="9"/>
       <c r="M225" s="9"/>
       <c r="N225" s="9"/>
@@ -7729,17 +7744,17 @@
       <c r="AB225" s="9"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="A226" s="54"/>
-      <c r="B226" s="55"/>
-      <c r="C226" s="56"/>
-      <c r="D226" s="55"/>
-      <c r="E226" s="55"/>
-      <c r="F226" s="55"/>
-      <c r="G226" s="55"/>
-      <c r="H226" s="57"/>
-      <c r="I226" s="58"/>
-      <c r="J226" s="58"/>
-      <c r="K226" s="58"/>
+      <c r="A226" s="55"/>
+      <c r="B226" s="56"/>
+      <c r="C226" s="57"/>
+      <c r="D226" s="56"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="56"/>
+      <c r="G226" s="56"/>
+      <c r="H226" s="58"/>
+      <c r="I226" s="59"/>
+      <c r="J226" s="59"/>
+      <c r="K226" s="59"/>
       <c r="L226" s="9"/>
       <c r="M226" s="9"/>
       <c r="N226" s="9"/>
@@ -7759,17 +7774,17 @@
       <c r="AB226" s="9"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="A227" s="54"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="56"/>
-      <c r="D227" s="55"/>
-      <c r="E227" s="55"/>
-      <c r="F227" s="55"/>
-      <c r="G227" s="55"/>
-      <c r="H227" s="57"/>
-      <c r="I227" s="58"/>
-      <c r="J227" s="58"/>
-      <c r="K227" s="58"/>
+      <c r="A227" s="55"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="57"/>
+      <c r="D227" s="56"/>
+      <c r="E227" s="56"/>
+      <c r="F227" s="56"/>
+      <c r="G227" s="56"/>
+      <c r="H227" s="58"/>
+      <c r="I227" s="59"/>
+      <c r="J227" s="59"/>
+      <c r="K227" s="59"/>
       <c r="L227" s="9"/>
       <c r="M227" s="9"/>
       <c r="N227" s="9"/>
@@ -7789,17 +7804,17 @@
       <c r="AB227" s="9"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="A228" s="54"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="56"/>
-      <c r="D228" s="55"/>
-      <c r="E228" s="55"/>
-      <c r="F228" s="55"/>
-      <c r="G228" s="55"/>
-      <c r="H228" s="57"/>
-      <c r="I228" s="58"/>
-      <c r="J228" s="58"/>
-      <c r="K228" s="58"/>
+      <c r="A228" s="55"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="57"/>
+      <c r="D228" s="56"/>
+      <c r="E228" s="56"/>
+      <c r="F228" s="56"/>
+      <c r="G228" s="56"/>
+      <c r="H228" s="58"/>
+      <c r="I228" s="59"/>
+      <c r="J228" s="59"/>
+      <c r="K228" s="59"/>
       <c r="L228" s="9"/>
       <c r="M228" s="9"/>
       <c r="N228" s="9"/>
@@ -7819,17 +7834,17 @@
       <c r="AB228" s="9"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="A229" s="54"/>
-      <c r="B229" s="55"/>
-      <c r="C229" s="56"/>
-      <c r="D229" s="55"/>
-      <c r="E229" s="55"/>
-      <c r="F229" s="55"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="57"/>
-      <c r="I229" s="58"/>
-      <c r="J229" s="58"/>
-      <c r="K229" s="58"/>
+      <c r="A229" s="55"/>
+      <c r="B229" s="56"/>
+      <c r="C229" s="57"/>
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="56"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="58"/>
+      <c r="I229" s="59"/>
+      <c r="J229" s="59"/>
+      <c r="K229" s="59"/>
       <c r="L229" s="9"/>
       <c r="M229" s="9"/>
       <c r="N229" s="9"/>
@@ -7849,17 +7864,17 @@
       <c r="AB229" s="9"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="A230" s="54"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="56"/>
-      <c r="D230" s="55"/>
-      <c r="E230" s="55"/>
-      <c r="F230" s="55"/>
-      <c r="G230" s="55"/>
-      <c r="H230" s="57"/>
-      <c r="I230" s="58"/>
-      <c r="J230" s="58"/>
-      <c r="K230" s="58"/>
+      <c r="A230" s="55"/>
+      <c r="B230" s="56"/>
+      <c r="C230" s="57"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="58"/>
+      <c r="I230" s="59"/>
+      <c r="J230" s="59"/>
+      <c r="K230" s="59"/>
       <c r="L230" s="9"/>
       <c r="M230" s="9"/>
       <c r="N230" s="9"/>
@@ -7879,17 +7894,17 @@
       <c r="AB230" s="9"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="A231" s="54"/>
-      <c r="B231" s="55"/>
-      <c r="C231" s="56"/>
-      <c r="D231" s="55"/>
-      <c r="E231" s="55"/>
-      <c r="F231" s="55"/>
-      <c r="G231" s="55"/>
-      <c r="H231" s="57"/>
-      <c r="I231" s="58"/>
-      <c r="J231" s="58"/>
-      <c r="K231" s="58"/>
+      <c r="A231" s="55"/>
+      <c r="B231" s="56"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="58"/>
+      <c r="I231" s="59"/>
+      <c r="J231" s="59"/>
+      <c r="K231" s="59"/>
       <c r="L231" s="9"/>
       <c r="M231" s="9"/>
       <c r="N231" s="9"/>
@@ -7909,17 +7924,17 @@
       <c r="AB231" s="9"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="A232" s="54"/>
-      <c r="B232" s="55"/>
-      <c r="C232" s="56"/>
-      <c r="D232" s="55"/>
-      <c r="E232" s="55"/>
-      <c r="F232" s="55"/>
-      <c r="G232" s="55"/>
-      <c r="H232" s="57"/>
-      <c r="I232" s="58"/>
-      <c r="J232" s="58"/>
-      <c r="K232" s="58"/>
+      <c r="A232" s="55"/>
+      <c r="B232" s="56"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="56"/>
+      <c r="G232" s="56"/>
+      <c r="H232" s="58"/>
+      <c r="I232" s="59"/>
+      <c r="J232" s="59"/>
+      <c r="K232" s="59"/>
       <c r="L232" s="9"/>
       <c r="M232" s="9"/>
       <c r="N232" s="9"/>
@@ -7939,17 +7954,17 @@
       <c r="AB232" s="9"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="A233" s="54"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="56"/>
-      <c r="D233" s="55"/>
-      <c r="E233" s="55"/>
-      <c r="F233" s="55"/>
-      <c r="G233" s="55"/>
-      <c r="H233" s="57"/>
-      <c r="I233" s="58"/>
-      <c r="J233" s="58"/>
-      <c r="K233" s="58"/>
+      <c r="A233" s="55"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="58"/>
+      <c r="I233" s="59"/>
+      <c r="J233" s="59"/>
+      <c r="K233" s="59"/>
       <c r="L233" s="9"/>
       <c r="M233" s="9"/>
       <c r="N233" s="9"/>
@@ -7969,17 +7984,17 @@
       <c r="AB233" s="9"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="A234" s="54"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="56"/>
-      <c r="D234" s="55"/>
-      <c r="E234" s="55"/>
-      <c r="F234" s="55"/>
-      <c r="G234" s="55"/>
-      <c r="H234" s="57"/>
-      <c r="I234" s="58"/>
-      <c r="J234" s="58"/>
-      <c r="K234" s="58"/>
+      <c r="A234" s="55"/>
+      <c r="B234" s="56"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="56"/>
+      <c r="E234" s="56"/>
+      <c r="F234" s="56"/>
+      <c r="G234" s="56"/>
+      <c r="H234" s="58"/>
+      <c r="I234" s="59"/>
+      <c r="J234" s="59"/>
+      <c r="K234" s="59"/>
       <c r="L234" s="9"/>
       <c r="M234" s="9"/>
       <c r="N234" s="9"/>
@@ -7999,17 +8014,17 @@
       <c r="AB234" s="9"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="A235" s="54"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="56"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="55"/>
-      <c r="G235" s="55"/>
-      <c r="H235" s="57"/>
-      <c r="I235" s="58"/>
-      <c r="J235" s="58"/>
-      <c r="K235" s="58"/>
+      <c r="A235" s="55"/>
+      <c r="B235" s="56"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="56"/>
+      <c r="E235" s="56"/>
+      <c r="F235" s="56"/>
+      <c r="G235" s="56"/>
+      <c r="H235" s="58"/>
+      <c r="I235" s="59"/>
+      <c r="J235" s="59"/>
+      <c r="K235" s="59"/>
       <c r="L235" s="9"/>
       <c r="M235" s="9"/>
       <c r="N235" s="9"/>
@@ -8029,17 +8044,17 @@
       <c r="AB235" s="9"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="A236" s="54"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="56"/>
-      <c r="D236" s="55"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="57"/>
-      <c r="I236" s="58"/>
-      <c r="J236" s="58"/>
-      <c r="K236" s="58"/>
+      <c r="A236" s="55"/>
+      <c r="B236" s="56"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="56"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="56"/>
+      <c r="H236" s="58"/>
+      <c r="I236" s="59"/>
+      <c r="J236" s="59"/>
+      <c r="K236" s="59"/>
       <c r="L236" s="9"/>
       <c r="M236" s="9"/>
       <c r="N236" s="9"/>
@@ -8059,17 +8074,17 @@
       <c r="AB236" s="9"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="A237" s="54"/>
-      <c r="B237" s="55"/>
-      <c r="C237" s="56"/>
-      <c r="D237" s="55"/>
-      <c r="E237" s="55"/>
-      <c r="F237" s="55"/>
-      <c r="G237" s="55"/>
-      <c r="H237" s="57"/>
-      <c r="I237" s="58"/>
-      <c r="J237" s="58"/>
-      <c r="K237" s="58"/>
+      <c r="A237" s="55"/>
+      <c r="B237" s="56"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="56"/>
+      <c r="E237" s="56"/>
+      <c r="F237" s="56"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="58"/>
+      <c r="I237" s="59"/>
+      <c r="J237" s="59"/>
+      <c r="K237" s="59"/>
       <c r="L237" s="9"/>
       <c r="M237" s="9"/>
       <c r="N237" s="9"/>
@@ -8089,17 +8104,17 @@
       <c r="AB237" s="9"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="A238" s="54"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="56"/>
-      <c r="D238" s="55"/>
-      <c r="E238" s="55"/>
-      <c r="F238" s="55"/>
-      <c r="G238" s="55"/>
-      <c r="H238" s="57"/>
-      <c r="I238" s="58"/>
-      <c r="J238" s="58"/>
-      <c r="K238" s="58"/>
+      <c r="A238" s="55"/>
+      <c r="B238" s="56"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="56"/>
+      <c r="E238" s="56"/>
+      <c r="F238" s="56"/>
+      <c r="G238" s="56"/>
+      <c r="H238" s="58"/>
+      <c r="I238" s="59"/>
+      <c r="J238" s="59"/>
+      <c r="K238" s="59"/>
       <c r="L238" s="9"/>
       <c r="M238" s="9"/>
       <c r="N238" s="9"/>
@@ -8882,6 +8897,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="E10:K10"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
@@ -8897,27 +8932,7 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
